--- a/backend/config/places_data_3.xlsx
+++ b/backend/config/places_data_3.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ENDPROJECT\CODE Project\trip-spark-builder\backend\config\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226C09B2-B2C9-4A54-873B-97908E73D901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2563" uniqueCount="1404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3187" uniqueCount="1584">
   <si>
     <t>Place ID</t>
   </si>
@@ -4226,17 +4232,557 @@
   </si>
   <si>
     <t>2024-07-04T09:37:11.139Z</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>TotalPeople</t>
+  </si>
+  <si>
+    <t>CheckIn</t>
+  </si>
+  <si>
+    <t>CheckOut</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>TotalRoom</t>
+  </si>
+  <si>
+    <t>เปิดบริการทุกวัน</t>
+  </si>
+  <si>
+    <t>1,000 - 1,400</t>
+  </si>
+  <si>
+    <t>1,000 - 1,600</t>
+  </si>
+  <si>
+    <t>1,000 - 1,500</t>
+  </si>
+  <si>
+    <t>2,000 - 3,200</t>
+  </si>
+  <si>
+    <t>5,000 - 8,000</t>
+  </si>
+  <si>
+    <t>800 - 1,200</t>
+  </si>
+  <si>
+    <t>1,200 - 2,000</t>
+  </si>
+  <si>
+    <t>1,200 - 1,800</t>
+  </si>
+  <si>
+    <t>400 - 700</t>
+  </si>
+  <si>
+    <t>700 - 1,000</t>
+  </si>
+  <si>
+    <t>1,200 - 2,500</t>
+  </si>
+  <si>
+    <t>4,500 - 8,000</t>
+  </si>
+  <si>
+    <t>900 - 1,500</t>
+  </si>
+  <si>
+    <t>1,000 - 2,000</t>
+  </si>
+  <si>
+    <t>1,000 - 1,800</t>
+  </si>
+  <si>
+    <t>1,000 - 1,700</t>
+  </si>
+  <si>
+    <t>500 - 1,000</t>
+  </si>
+  <si>
+    <t>500 - 900</t>
+  </si>
+  <si>
+    <t>700 - 1,100</t>
+  </si>
+  <si>
+    <t>900 - 1,300</t>
+  </si>
+  <si>
+    <t>1,500 - 2,500</t>
+  </si>
+  <si>
+    <t>400 - 800</t>
+  </si>
+  <si>
+    <t>600 - 1,200</t>
+  </si>
+  <si>
+    <t>2,500 - 4,500</t>
+  </si>
+  <si>
+    <t>6,000 - 12,000</t>
+  </si>
+  <si>
+    <t>2,000 - 3,500</t>
+  </si>
+  <si>
+    <t>4,000 - 7,000</t>
+  </si>
+  <si>
+    <t>1,800 - 2,800</t>
+  </si>
+  <si>
+    <t>600 - 1,000</t>
+  </si>
+  <si>
+    <t>2,500 - 4,000</t>
+  </si>
+  <si>
+    <t>900 - 1,400</t>
+  </si>
+  <si>
+    <t>700 - 1,200</t>
+  </si>
+  <si>
+    <t>800 - 1,300</t>
+  </si>
+  <si>
+    <t>600 - 900</t>
+  </si>
+  <si>
+    <t>2,800 - 5,000</t>
+  </si>
+  <si>
+    <t>4,500 - 8,500</t>
+  </si>
+  <si>
+    <t>500 - 1,200</t>
+  </si>
+  <si>
+    <t>1,800 - 3,000</t>
+  </si>
+  <si>
+    <t>3,000 - 5,500</t>
+  </si>
+  <si>
+    <t>800 - 1,400</t>
+  </si>
+  <si>
+    <t>3,000 - 6,000</t>
+  </si>
+  <si>
+    <t>700 - 1,300</t>
+  </si>
+  <si>
+    <t>900 - 1,600</t>
+  </si>
+  <si>
+    <t>7,000 - 15,000</t>
+  </si>
+  <si>
+    <t>5,000 - 9,000</t>
+  </si>
+  <si>
+    <t>3,000 - 5,000</t>
+  </si>
+  <si>
+    <t>1,400 - 2,200</t>
+  </si>
+  <si>
+    <t>1,600 - 2,800</t>
+  </si>
+  <si>
+    <t>9,000 - 20,000+</t>
+  </si>
+  <si>
+    <t>5,500 - 10,000</t>
+  </si>
+  <si>
+    <t>3,500 - 7,000</t>
+  </si>
+  <si>
+    <t>6,000 - 15,000</t>
+  </si>
+  <si>
+    <t>5,000 - 12,000</t>
+  </si>
+  <si>
+    <t>400 - 900</t>
+  </si>
+  <si>
+    <t>1,500 - 3,000</t>
+  </si>
+  <si>
+    <t>6,000 - 15,000+</t>
+  </si>
+  <si>
+    <t>5,500 - 10,000+</t>
+  </si>
+  <si>
+    <t>1,400 - 2,400</t>
+  </si>
+  <si>
+    <t>2,500 - 4,200</t>
+  </si>
+  <si>
+    <t>2,200 - 3,800</t>
+  </si>
+  <si>
+    <t>4,000 - 10,000</t>
+  </si>
+  <si>
+    <t>4,000 - 8,000</t>
+  </si>
+  <si>
+    <t>5,500 - 15,000</t>
+  </si>
+  <si>
+    <t>2,200 - 4,000</t>
+  </si>
+  <si>
+    <t>2,000 - 3,800</t>
+  </si>
+  <si>
+    <t>2,200 - 3,600</t>
+  </si>
+  <si>
+    <t>3,500 - 6,500</t>
+  </si>
+  <si>
+    <t>2,000 - 3,000</t>
+  </si>
+  <si>
+    <t>8,000 - 20,000+</t>
+  </si>
+  <si>
+    <t>2,400 - 4,500</t>
+  </si>
+  <si>
+    <t>3,000 - 6,500</t>
+  </si>
+  <si>
+    <t>4,000 - 9,000</t>
+  </si>
+  <si>
+    <t>1,800 - 3,500</t>
+  </si>
+  <si>
+    <t>300-600</t>
+  </si>
+  <si>
+    <t>200-400</t>
+  </si>
+  <si>
+    <t>4,000 - 6,500</t>
+  </si>
+  <si>
+    <t>1,600 - 2,500</t>
+  </si>
+  <si>
+    <t>2,200 - 3,500</t>
+  </si>
+  <si>
+    <t>2,800 - 4,200</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>บ้านๆ, ราคาประหยัด, โลคัล</t>
+  </si>
+  <si>
+    <t>หรูหรา, ทำเลดี, สำหรับนักธุรกิจ</t>
+  </si>
+  <si>
+    <t>หรูหรา, สำหรับนักธุรกิจ, ใกล้แหล่งช้อปปิ้ง</t>
+  </si>
+  <si>
+    <t>บ้านๆ, สำหรับแบ็คแพ็คเกอร์, โลคัล, ใกล้แหล่งท่องเที่ยว</t>
+  </si>
+  <si>
+    <t>ราคาประหยัด, ทำเลดี, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>ดีไซน์เก๋, ราคาปานกลาง, โลคัล</t>
+  </si>
+  <si>
+    <t>โฮสเทล, สำหรับแบ็คแพ็คเกอร์, บ้านๆ</t>
+  </si>
+  <si>
+    <t>ราคาประหยัด, สำหรับครอบครัว, โลคัล</t>
+  </si>
+  <si>
+    <t>อพาร์ตเมนต์, ราคาประหยัด, อยู่แบบระยะยาว</t>
+  </si>
+  <si>
+    <t>หรูหรา, อยู่ระยะยาว, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>หรูหรา, สำหรับนักธุรกิจ, ทำเลดี</t>
+  </si>
+  <si>
+    <t>โฮสเทล, ดีไซน์ทันสมัย, สำหรับวัยรุ่น, ราคาประหยัด</t>
+  </si>
+  <si>
+    <t>ทำเลดี, ใกล้ห้าง, สำหรับนักช้อป, อยู่แบบสั้น-ยาวได้</t>
+  </si>
+  <si>
+    <t>รีสอร์ทในเมือง, ชิวๆ, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>บ้านๆ, โลคัล, เงียบสงบ</t>
+  </si>
+  <si>
+    <t>โฮสเทล, ดีไซน์เก๋, สำหรับวัยรุ่น, บ้านๆ</t>
+  </si>
+  <si>
+    <t>หรูหรา, สำหรับสัมมนา/ธุรกิจ, ใกล้สนามบิน</t>
+  </si>
+  <si>
+    <t>บ้านๆ, โลคัล, ราคาถูก, เงียบสงบ</t>
+  </si>
+  <si>
+    <t>โฮสเทล, สำหรับแบ็คแพ็คเกอร์, ทำเลดี, ราคาประหยัด</t>
+  </si>
+  <si>
+    <t>หรูหรา, ทำเลใจกลางเมือง, สำหรับนักธุรกิจ</t>
+  </si>
+  <si>
+    <t>ราคาปานกลาง, สำหรับครอบครัว, โลคัล</t>
+  </si>
+  <si>
+    <t>หรูหรา, สำหรับครอบครัว, ทำเลดี</t>
+  </si>
+  <si>
+    <t>บ้านๆ, ราคาประหยัด, โฮสเทล</t>
+  </si>
+  <si>
+    <t>บ้านๆ, โฮสเทล, ราคาประหยัด</t>
+  </si>
+  <si>
+    <t>ราคาปานกลาง, สำหรับนักท่องเที่ยว, ใจกลางเมือง</t>
+  </si>
+  <si>
+    <t>หรูหรา, ระดับ 5 ดาว, สำหรับนักธุรกิจ</t>
+  </si>
+  <si>
+    <t>หรูหรา, อยู่ระยะยาว, สำหรับนักธุรกิจ</t>
+  </si>
+  <si>
+    <t>รีสอร์ท, ชิวๆ, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>ราคาประหยัด, โฮสเทล, บ้านๆ</t>
+  </si>
+  <si>
+    <t>ราคาประหยัด, บ้านๆ, สำหรับนักเดินทางคนเดียว</t>
+  </si>
+  <si>
+    <t>ราคาประหยัด, บ้านๆ, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>บ้านๆ, โฮสเทล, โลคัล</t>
+  </si>
+  <si>
+    <t>รีสอร์ท, ริมแม่น้ำ, ชมวิว, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>บ้านๆ, ราคาประหยัด, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>ราคาปานกลาง, บ้านๆ, โลคัล</t>
+  </si>
+  <si>
+    <t>ราคาปานกลาง, สำหรับวัยรุ่น, ทำเลดี</t>
+  </si>
+  <si>
+    <t>บูติกโฮเต็ล, ดีไซน์เก๋, สำหรับคู่รัก</t>
+  </si>
+  <si>
+    <t>รีสอร์ท, บ้านพัก, ชมวิว, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>ราคาปานกลาง, อพาร์ตเมนต์, สำหรับอยู่ระยะยาว</t>
+  </si>
+  <si>
+    <t>รีสอร์ท, ธรรมชาติ, ชิวๆ, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>ราคาปานกลาง, บ้านๆ, ทำเลดี</t>
+  </si>
+  <si>
+    <t>โรงแรมสนามบิน, สำหรับนักเดินทางธุรกิจและนักท่องเที่ยว</t>
+  </si>
+  <si>
+    <t>หรูหรา, โรงแรมระดับสากล, สำหรับนักธุรกิจ</t>
+  </si>
+  <si>
+    <t>รีสอร์ท, ธรรมชาติ, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>ราคาปานกลาง, สำหรับนักธุรกิจ, ทำเลดี</t>
+  </si>
+  <si>
+    <t>บ้านๆ, ชมวิว, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>อพาร์ตเมนต์, ราคาปานกลาง, อยู่ระยะยาว</t>
+  </si>
+  <si>
+    <t>รีสอร์ท, ชิวๆ, สปา, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>ราคาปานกลาง, ทำเลดี, บ้านๆ</t>
+  </si>
+  <si>
+    <t>รีสอร์ท, ชิวๆ, ธรรมชาติ</t>
+  </si>
+  <si>
+    <t>บ้านๆ, ดีไซน์เก๋, ชมวิว, สำหรับวัยรุ่น</t>
+  </si>
+  <si>
+    <t>ราคาปานกลาง, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>ราคาปานกลาง, ทำเลดี, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>บ้านๆ, ราคาประหยัด, สำหรับอยู่ระยะยาว</t>
+  </si>
+  <si>
+    <t>ราคาปานกลาง, ทำเลดี, สำหรับนักธุรกิจ</t>
+  </si>
+  <si>
+    <t>บ้านพัก, บ้านๆ, โลคัล</t>
+  </si>
+  <si>
+    <t>ราคาประหยัด, บ้านๆ, โฮสเทล</t>
+  </si>
+  <si>
+    <t>ราคาปานกลาง, สำหรับครอบครัว, ทำเลดี</t>
+  </si>
+  <si>
+    <t>ราคาปานกลาง, บ้านๆ, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>ราคาประหยัด, บ้านๆ, โลคัล</t>
+  </si>
+  <si>
+    <t>โรงแรมสนามบิน, สำหรับนักธุรกิจ, อยู่ระยะยาว</t>
+  </si>
+  <si>
+    <t>หรูหรา, รีสอร์ทในเมือง, สำหรับนักธุรกิจ</t>
+  </si>
+  <si>
+    <t>หรูหรา, สำหรับนักธุรกิจ, อยู่ระยะยาว</t>
+  </si>
+  <si>
+    <t>หรูหรา, ดีไซน์ทันสมัย, สำหรับวัยรุ่น</t>
+  </si>
+  <si>
+    <t>รีสอร์ท, ราคาประหยัด, บ้านๆ</t>
+  </si>
+  <si>
+    <t>รีสอร์ท, ธรรมชาติ, ชิวๆ</t>
+  </si>
+  <si>
+    <t>อพาร์ตเมนต์, อยู่ระยะยาว, ราคาปานกลาง</t>
+  </si>
+  <si>
+    <t>บูติกโฮเต็ล, ดีไซน์เก๋, สำหรับวัยรุ่น</t>
+  </si>
+  <si>
+    <t>อพาร์ตเมนต์, หรูหรา, สำหรับนักธุรกิจ</t>
+  </si>
+  <si>
+    <t>หรูหรา, สำหรับครอบครัว, อยู่ระยะยาว</t>
+  </si>
+  <si>
+    <t>บ้านๆ, ราคาปานกลาง, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>หรูหรา, โรงแรมระดับ 5 ดาว, สำหรับนักธุรกิจ</t>
+  </si>
+  <si>
+    <t>อพาร์ตเมนต์, อยู่ระยะยาว, ทำเลดี</t>
+  </si>
+  <si>
+    <t>หรูหรา, โรงแรมระดับ 5 ดาว, ทำเลดี</t>
+  </si>
+  <si>
+    <t>บ้านๆ, ราคาประหยัด, สำหรับนักท่องเที่ยว</t>
+  </si>
+  <si>
+    <t>หรูหรา, ระดับ 5 ดาว, สำหรับครอบครัวและนักธุรกิจ</t>
+  </si>
+  <si>
+    <t>หรูหรา, สำหรับจัดประชุม, งานสัมมนา</t>
+  </si>
+  <si>
+    <t>หรูหรา, โรงแรมสนามบิน, สำหรับนักเดินทางธุรกิจ</t>
+  </si>
+  <si>
+    <t>บ้านๆ, ราคาประหยัด, สำหรับคู่รัก</t>
+  </si>
+  <si>
+    <t>หรูหรา, ริมแม่น้ำ, สำหรับนักธุรกิจ</t>
+  </si>
+  <si>
+    <t>หรูหรา, ริมแม่น้ำ, สำหรับครอบครัวและนักธุรกิจ</t>
+  </si>
+  <si>
+    <t>หรูหรา, ดีไซน์ทันสมัย, สำหรับนักธุรกิจ</t>
+  </si>
+  <si>
+    <t>หรูหรา, ดีไซน์เก๋, สำหรับวัยรุ่นและนักธุรกิจ</t>
+  </si>
+  <si>
+    <t>ราคาปานกลาง, สำหรับครอบครัว, ริมแม่น้ำ</t>
+  </si>
+  <si>
+    <t>ราคาประหยัด, บ้านๆ, สำหรับวัยรุ่น</t>
+  </si>
+  <si>
+    <t>หรูหรา, โรงแรมระดับ 5 ดาว, ริมแม่น้ำ</t>
+  </si>
+  <si>
+    <t>บ้านๆ, ราคาปานกลาง, สำหรับนักธุรกิจ</t>
+  </si>
+  <si>
+    <t>บ้านๆ, รีสอร์ท, ริมแม่น้ำ</t>
+  </si>
+  <si>
+    <t>อพาร์ตเมนต์, อยู่ระยะยาว, สำหรับนักธุรกิจ</t>
+  </si>
+  <si>
+    <t>บ้านๆ, ราคาปานกลาง, อยู่ระยะยาว</t>
+  </si>
+  <si>
+    <t>หรูหรา, รีสอร์ท, สำหรับครอบครัวและนักธุรกิจ</t>
+  </si>
+  <si>
+    <t>รีสอร์ท, ชิวๆ, สำหรับพักผ่อนและครอบครัว</t>
+  </si>
+  <si>
+    <t>อพาร์ตเมนต์, อยู่ระยะยาว, บ้านๆ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4244,7 +4790,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4254,6 +4800,12 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4295,26 +4847,43 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4352,7 +4921,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -4386,6 +4955,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4420,9 +4990,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4595,14 +5166,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N206"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V206"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="W175" sqref="W175"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4645,8 +5218,30 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="V1" s="4"/>
+    </row>
+    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -4686,8 +5281,29 @@
       <c r="N2" t="s">
         <v>1282</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>1411</v>
+      </c>
+      <c r="S2" s="3">
+        <v>120</v>
+      </c>
+      <c r="T2" s="3">
+        <v>65</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -4727,8 +5343,29 @@
       <c r="N3" t="s">
         <v>1283</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>1414</v>
+      </c>
+      <c r="S3" s="3">
+        <v>240</v>
+      </c>
+      <c r="T3" s="3">
+        <v>160</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -4768,8 +5405,29 @@
       <c r="N4" t="s">
         <v>1284</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="S4" s="3">
+        <v>500</v>
+      </c>
+      <c r="T4" s="3">
+        <v>362</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -4809,8 +5467,29 @@
       <c r="N5" t="s">
         <v>1285</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="S5" s="3">
+        <v>60</v>
+      </c>
+      <c r="T5" s="3">
+        <v>30</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -4850,8 +5529,29 @@
       <c r="N6" t="s">
         <v>1286</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="S6" s="3">
+        <v>300</v>
+      </c>
+      <c r="T6" s="3">
+        <v>189</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -4891,8 +5591,29 @@
       <c r="N7" t="s">
         <v>1287</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="S7" s="3">
+        <v>150</v>
+      </c>
+      <c r="T7" s="3">
+        <v>100</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -4929,8 +5650,29 @@
       <c r="N8" t="s">
         <v>1288</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P8" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>1419</v>
+      </c>
+      <c r="S8" s="3">
+        <v>40</v>
+      </c>
+      <c r="T8" s="3">
+        <v>10</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -4967,8 +5709,29 @@
       <c r="N9" t="s">
         <v>1289</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="S9" s="3">
+        <v>80</v>
+      </c>
+      <c r="T9" s="3">
+        <v>45</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -5002,8 +5765,29 @@
       <c r="N10" t="s">
         <v>1290</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="S10" s="3">
+        <v>60</v>
+      </c>
+      <c r="T10" s="3">
+        <v>35</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -5040,8 +5824,29 @@
       <c r="N11" t="s">
         <v>1291</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="S11" s="3">
+        <v>100</v>
+      </c>
+      <c r="T11" s="3">
+        <v>50</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -5078,8 +5883,29 @@
       <c r="N12" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="P12" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>1422</v>
+      </c>
+      <c r="S12" s="3">
+        <v>600</v>
+      </c>
+      <c r="T12" s="3">
+        <v>399</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -5116,8 +5942,29 @@
       <c r="N13" t="s">
         <v>1293</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P13" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="S13" s="3">
+        <v>100</v>
+      </c>
+      <c r="T13" s="3">
+        <v>70</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -5154,8 +6001,29 @@
       <c r="N14" t="s">
         <v>1294</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P14" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="S14" s="3">
+        <v>90</v>
+      </c>
+      <c r="T14" s="3">
+        <v>60</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -5192,8 +6060,29 @@
       <c r="N15" t="s">
         <v>1295</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P15" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="S15" s="3">
+        <v>80</v>
+      </c>
+      <c r="T15" s="3">
+        <v>40</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -5230,8 +6119,29 @@
       <c r="N16" t="s">
         <v>1296</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P16" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>1426</v>
+      </c>
+      <c r="S16" s="3">
+        <v>60</v>
+      </c>
+      <c r="T16" s="3">
+        <v>30</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -5268,8 +6178,29 @@
       <c r="N17" t="s">
         <v>1297</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P17" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>1427</v>
+      </c>
+      <c r="S17" s="3">
+        <v>50</v>
+      </c>
+      <c r="T17" s="3">
+        <v>25</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -5306,8 +6237,29 @@
       <c r="N18" t="s">
         <v>1298</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P18" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="S18" s="3">
+        <v>160</v>
+      </c>
+      <c r="T18" s="3">
+        <v>100</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -5344,8 +6296,29 @@
       <c r="N19" t="s">
         <v>1299</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P19" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>1428</v>
+      </c>
+      <c r="S19" s="3">
+        <v>40</v>
+      </c>
+      <c r="T19" s="3">
+        <v>20</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -5382,8 +6355,29 @@
       <c r="N20" t="s">
         <v>1300</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P20" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>1429</v>
+      </c>
+      <c r="S20" s="3">
+        <v>60</v>
+      </c>
+      <c r="T20" s="3">
+        <v>30</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -5420,8 +6414,29 @@
       <c r="N21" t="s">
         <v>1301</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P21" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>1430</v>
+      </c>
+      <c r="S21" s="3">
+        <v>60</v>
+      </c>
+      <c r="T21" s="3">
+        <v>30</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -5458,8 +6473,29 @@
       <c r="N22" t="s">
         <v>1302</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P22" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="S22" s="3">
+        <v>80</v>
+      </c>
+      <c r="T22" s="3">
+        <v>40</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -5496,8 +6532,29 @@
       <c r="N23" t="s">
         <v>1303</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P23" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="S23" s="3">
+        <v>150</v>
+      </c>
+      <c r="T23" s="3">
+        <v>100</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -5534,8 +6591,29 @@
       <c r="N24" t="s">
         <v>1304</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P24" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>1431</v>
+      </c>
+      <c r="S24" s="3">
+        <v>100</v>
+      </c>
+      <c r="T24" s="3">
+        <v>55</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -5569,8 +6647,29 @@
       <c r="N25" t="s">
         <v>1305</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="O25" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="P25" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>1432</v>
+      </c>
+      <c r="S25" s="3">
+        <v>30</v>
+      </c>
+      <c r="T25" s="3">
+        <v>15</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -5607,8 +6706,29 @@
       <c r="N26" t="s">
         <v>1306</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="O26" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P26" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="S26" s="3">
+        <v>80</v>
+      </c>
+      <c r="T26" s="3">
+        <v>45</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -5645,8 +6765,29 @@
       <c r="N27" t="s">
         <v>1307</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="O27" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P27" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>1433</v>
+      </c>
+      <c r="S27" s="3">
+        <v>50</v>
+      </c>
+      <c r="T27" s="3">
+        <v>25</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -5683,8 +6824,29 @@
       <c r="N28" t="s">
         <v>1308</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="O28" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P28" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="S28" s="3">
+        <v>300</v>
+      </c>
+      <c r="T28" s="3">
+        <v>189</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -5721,8 +6883,29 @@
       <c r="N29" t="s">
         <v>1309</v>
       </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="O29" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P29" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="S29" s="3">
+        <v>90</v>
+      </c>
+      <c r="T29" s="3">
+        <v>50</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -5759,8 +6942,29 @@
       <c r="N30" t="s">
         <v>1310</v>
       </c>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="O30" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="P30" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="S30" s="3">
+        <v>700</v>
+      </c>
+      <c r="T30" s="3">
+        <v>380</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -5797,8 +7001,29 @@
       <c r="N31" t="s">
         <v>1311</v>
       </c>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="O31" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P31" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>1436</v>
+      </c>
+      <c r="S31" s="3">
+        <v>250</v>
+      </c>
+      <c r="T31" s="3">
+        <v>150</v>
+      </c>
+      <c r="U31" s="3" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -5835,8 +7060,29 @@
       <c r="N32" t="s">
         <v>1312</v>
       </c>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="O32" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="P32" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>1437</v>
+      </c>
+      <c r="S32" s="3">
+        <v>500</v>
+      </c>
+      <c r="T32" s="3">
+        <v>289</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -5873,8 +7119,29 @@
       <c r="N33" t="s">
         <v>1313</v>
       </c>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="O33" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P33" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="S33" s="3">
+        <v>70</v>
+      </c>
+      <c r="T33" s="3">
+        <v>35</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -5911,8 +7178,29 @@
       <c r="N34" t="s">
         <v>1314</v>
       </c>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="O34" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P34" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="S34" s="3">
+        <v>60</v>
+      </c>
+      <c r="T34" s="3">
+        <v>30</v>
+      </c>
+      <c r="U34" s="3" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -5949,8 +7237,29 @@
       <c r="N35" t="s">
         <v>1315</v>
       </c>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="O35" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P35" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="S35" s="3">
+        <v>50</v>
+      </c>
+      <c r="T35" s="3">
+        <v>25</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -5987,8 +7296,29 @@
       <c r="N36" t="s">
         <v>1316</v>
       </c>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="O36" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P36" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="S36" s="3">
+        <v>100</v>
+      </c>
+      <c r="T36" s="3">
+        <v>50</v>
+      </c>
+      <c r="U36" s="3" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -6028,8 +7358,29 @@
       <c r="N37" t="s">
         <v>1317</v>
       </c>
-    </row>
-    <row r="38" spans="1:14">
+      <c r="O37" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P37" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="S37" s="3">
+        <v>100</v>
+      </c>
+      <c r="T37" s="3">
+        <v>70</v>
+      </c>
+      <c r="U37" s="3" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -6066,8 +7417,29 @@
       <c r="N38" t="s">
         <v>1318</v>
       </c>
-    </row>
-    <row r="39" spans="1:14">
+      <c r="O38" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P38" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R38" s="3" t="s">
+        <v>1433</v>
+      </c>
+      <c r="S38" s="3">
+        <v>60</v>
+      </c>
+      <c r="T38" s="3">
+        <v>30</v>
+      </c>
+      <c r="U38" s="3" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -6104,8 +7476,29 @@
       <c r="N39" t="s">
         <v>1319</v>
       </c>
-    </row>
-    <row r="40" spans="1:14">
+      <c r="O39" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P39" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R39" s="3" t="s">
+        <v>1438</v>
+      </c>
+      <c r="S39" s="3">
+        <v>120</v>
+      </c>
+      <c r="T39" s="3">
+        <v>70</v>
+      </c>
+      <c r="U39" s="3" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -6142,8 +7535,29 @@
       <c r="N40" t="s">
         <v>1320</v>
       </c>
-    </row>
-    <row r="41" spans="1:14">
+      <c r="O40" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P40" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R40" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="S40" s="3">
+        <v>100</v>
+      </c>
+      <c r="T40" s="3">
+        <v>60</v>
+      </c>
+      <c r="U40" s="3" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -6180,8 +7594,29 @@
       <c r="N41" t="s">
         <v>1321</v>
       </c>
-    </row>
-    <row r="42" spans="1:14">
+      <c r="O41" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P41" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="S41" s="3">
+        <v>80</v>
+      </c>
+      <c r="T41" s="3">
+        <v>40</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -6218,8 +7653,29 @@
       <c r="N42" t="s">
         <v>1322</v>
       </c>
-    </row>
-    <row r="43" spans="1:14">
+      <c r="O42" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P42" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="S42" s="3">
+        <v>70</v>
+      </c>
+      <c r="T42" s="3">
+        <v>35</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -6256,8 +7712,29 @@
       <c r="N43" t="s">
         <v>1323</v>
       </c>
-    </row>
-    <row r="44" spans="1:14">
+      <c r="O43" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P43" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>1439</v>
+      </c>
+      <c r="S43" s="3">
+        <v>40</v>
+      </c>
+      <c r="T43" s="3">
+        <v>20</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -6291,8 +7768,29 @@
       <c r="N44" t="s">
         <v>1324</v>
       </c>
-    </row>
-    <row r="45" spans="1:14">
+      <c r="O44" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="P44" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>1440</v>
+      </c>
+      <c r="S44" s="3">
+        <v>200</v>
+      </c>
+      <c r="T44" s="3">
+        <v>195</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>57</v>
       </c>
@@ -6329,8 +7827,29 @@
       <c r="N45" t="s">
         <v>1325</v>
       </c>
-    </row>
-    <row r="46" spans="1:14">
+      <c r="O45" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P45" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>1441</v>
+      </c>
+      <c r="S45" s="3">
+        <v>90</v>
+      </c>
+      <c r="T45" s="3">
+        <v>60</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>58</v>
       </c>
@@ -6367,8 +7886,29 @@
       <c r="N46" t="s">
         <v>1326</v>
       </c>
-    </row>
-    <row r="47" spans="1:14">
+      <c r="O46" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P46" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>1442</v>
+      </c>
+      <c r="S46" s="3">
+        <v>80</v>
+      </c>
+      <c r="T46" s="3">
+        <v>40</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>59</v>
       </c>
@@ -6405,8 +7945,29 @@
       <c r="N47" t="s">
         <v>1327</v>
       </c>
-    </row>
-    <row r="48" spans="1:14">
+      <c r="O47" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P47" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>1443</v>
+      </c>
+      <c r="S47" s="3">
+        <v>60</v>
+      </c>
+      <c r="T47" s="3">
+        <v>30</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>60</v>
       </c>
@@ -6443,8 +8004,29 @@
       <c r="N48" t="s">
         <v>1328</v>
       </c>
-    </row>
-    <row r="49" spans="1:14">
+      <c r="O48" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P48" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="S48" s="3">
+        <v>90</v>
+      </c>
+      <c r="T48" s="3">
+        <v>50</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -6481,8 +8063,29 @@
       <c r="N49" t="s">
         <v>1329</v>
       </c>
-    </row>
-    <row r="50" spans="1:14">
+      <c r="O49" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P49" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>1444</v>
+      </c>
+      <c r="S49" s="3">
+        <v>60</v>
+      </c>
+      <c r="T49" s="3">
+        <v>30</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -6519,8 +8122,29 @@
       <c r="N50" t="s">
         <v>1330</v>
       </c>
-    </row>
-    <row r="51" spans="1:14">
+      <c r="O50" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P50" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q50" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R50" s="3" t="s">
+        <v>1439</v>
+      </c>
+      <c r="S50" s="3">
+        <v>50</v>
+      </c>
+      <c r="T50" s="3">
+        <v>25</v>
+      </c>
+      <c r="U50" s="3" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -6557,8 +8181,29 @@
       <c r="N51" t="s">
         <v>1331</v>
       </c>
-    </row>
-    <row r="52" spans="1:14">
+      <c r="O51" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P51" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q51" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R51" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="S51" s="3">
+        <v>60</v>
+      </c>
+      <c r="T51" s="3">
+        <v>30</v>
+      </c>
+      <c r="U51" s="3" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>64</v>
       </c>
@@ -6595,8 +8240,29 @@
       <c r="N52" t="s">
         <v>1332</v>
       </c>
-    </row>
-    <row r="53" spans="1:14">
+      <c r="O52" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="P52" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="S52" s="3">
+        <v>700</v>
+      </c>
+      <c r="T52" s="3">
+        <v>374</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>65</v>
       </c>
@@ -6633,8 +8299,29 @@
       <c r="N53" t="s">
         <v>1333</v>
       </c>
-    </row>
-    <row r="54" spans="1:14">
+      <c r="O53" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P53" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q53" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R53" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="S53" s="3">
+        <v>80</v>
+      </c>
+      <c r="T53" s="3">
+        <v>50</v>
+      </c>
+      <c r="U53" s="3" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>66</v>
       </c>
@@ -6671,8 +8358,29 @@
       <c r="N54" t="s">
         <v>1334</v>
       </c>
-    </row>
-    <row r="55" spans="1:14">
+      <c r="O54" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="P54" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="S54" s="3">
+        <v>300</v>
+      </c>
+      <c r="T54" s="3">
+        <v>319</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -6709,8 +8417,29 @@
       <c r="N55" t="s">
         <v>1335</v>
       </c>
-    </row>
-    <row r="56" spans="1:14">
+      <c r="O55" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P55" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q55" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R55" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="S55" s="3">
+        <v>100</v>
+      </c>
+      <c r="T55" s="3">
+        <v>60</v>
+      </c>
+      <c r="U55" s="3" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>68</v>
       </c>
@@ -6747,8 +8476,29 @@
       <c r="N56" t="s">
         <v>1336</v>
       </c>
-    </row>
-    <row r="57" spans="1:14">
+      <c r="O56" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P56" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q56" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R56" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="S56" s="3">
+        <v>120</v>
+      </c>
+      <c r="T56" s="3">
+        <v>70</v>
+      </c>
+      <c r="U56" s="3" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>69</v>
       </c>
@@ -6782,8 +8532,29 @@
       <c r="N57" t="s">
         <v>1337</v>
       </c>
-    </row>
-    <row r="58" spans="1:14">
+      <c r="O57" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="P57" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>1446</v>
+      </c>
+      <c r="S57" s="3">
+        <v>500</v>
+      </c>
+      <c r="T57" s="3">
+        <v>469</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>70</v>
       </c>
@@ -6820,8 +8591,29 @@
       <c r="N58" t="s">
         <v>1338</v>
       </c>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="O58" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P58" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>1432</v>
+      </c>
+      <c r="S58" s="3">
+        <v>40</v>
+      </c>
+      <c r="T58" s="3">
+        <v>20</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>71</v>
       </c>
@@ -6858,8 +8650,29 @@
       <c r="N59" t="s">
         <v>1339</v>
       </c>
-    </row>
-    <row r="60" spans="1:14">
+      <c r="O59" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P59" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="S59" s="3">
+        <v>50</v>
+      </c>
+      <c r="T59" s="3">
+        <v>25</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>72</v>
       </c>
@@ -6896,8 +8709,29 @@
       <c r="N60" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="61" spans="1:14">
+      <c r="O60" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P60" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>1441</v>
+      </c>
+      <c r="S60" s="3">
+        <v>60</v>
+      </c>
+      <c r="T60" s="3">
+        <v>30</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>73</v>
       </c>
@@ -6934,8 +8768,29 @@
       <c r="N61" t="s">
         <v>1341</v>
       </c>
-    </row>
-    <row r="62" spans="1:14">
+      <c r="O61" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P61" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q61" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R61" s="3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="S61" s="3">
+        <v>200</v>
+      </c>
+      <c r="T61" s="3">
+        <v>100</v>
+      </c>
+      <c r="U61" s="3" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>74</v>
       </c>
@@ -6972,8 +8827,29 @@
       <c r="N62" t="s">
         <v>1342</v>
       </c>
-    </row>
-    <row r="63" spans="1:14">
+      <c r="O62" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P62" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="S62" s="3">
+        <v>180</v>
+      </c>
+      <c r="T62" s="3">
+        <v>140</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>75</v>
       </c>
@@ -7010,8 +8886,29 @@
       <c r="N63" t="s">
         <v>1343</v>
       </c>
-    </row>
-    <row r="64" spans="1:14">
+      <c r="O63" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P63" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q63" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R63" s="3" t="s">
+        <v>1449</v>
+      </c>
+      <c r="S63" s="3">
+        <v>250</v>
+      </c>
+      <c r="T63" s="3">
+        <v>152</v>
+      </c>
+      <c r="U63" s="3" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>76</v>
       </c>
@@ -7048,8 +8945,29 @@
       <c r="N64" t="s">
         <v>1344</v>
       </c>
-    </row>
-    <row r="65" spans="1:14">
+      <c r="O64" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P64" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q64" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R64" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="S64" s="3">
+        <v>100</v>
+      </c>
+      <c r="T64" s="3">
+        <v>60</v>
+      </c>
+      <c r="U64" s="3" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>77</v>
       </c>
@@ -7086,8 +9004,29 @@
       <c r="N65" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="66" spans="1:14">
+      <c r="O65" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P65" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q65" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R65" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="S65" s="3">
+        <v>120</v>
+      </c>
+      <c r="T65" s="3">
+        <v>70</v>
+      </c>
+      <c r="U65" s="3" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>78</v>
       </c>
@@ -7124,8 +9063,29 @@
       <c r="N66" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="67" spans="1:14">
+      <c r="O66" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P66" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="S66" s="3">
+        <v>150</v>
+      </c>
+      <c r="T66" s="3">
+        <v>90</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>79</v>
       </c>
@@ -7162,8 +9122,29 @@
       <c r="N67" t="s">
         <v>1347</v>
       </c>
-    </row>
-    <row r="68" spans="1:14">
+      <c r="O67" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P67" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q67" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R67" s="3" t="s">
+        <v>1450</v>
+      </c>
+      <c r="S67" s="3">
+        <v>80</v>
+      </c>
+      <c r="T67" s="3">
+        <v>40</v>
+      </c>
+      <c r="U67" s="3" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>80</v>
       </c>
@@ -7203,8 +9184,29 @@
       <c r="N68" t="s">
         <v>1348</v>
       </c>
-    </row>
-    <row r="69" spans="1:14">
+      <c r="O68" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="P68" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q68" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R68" s="3" t="s">
+        <v>1451</v>
+      </c>
+      <c r="S68" s="3">
+        <v>400</v>
+      </c>
+      <c r="T68" s="3">
+        <v>233</v>
+      </c>
+      <c r="U68" s="3" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>81</v>
       </c>
@@ -7241,8 +9243,29 @@
       <c r="N69" t="s">
         <v>1349</v>
       </c>
-    </row>
-    <row r="70" spans="1:14">
+      <c r="O69" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P69" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q69" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R69" s="3" t="s">
+        <v>1441</v>
+      </c>
+      <c r="S69" s="3">
+        <v>60</v>
+      </c>
+      <c r="T69" s="3">
+        <v>34</v>
+      </c>
+      <c r="U69" s="3" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>82</v>
       </c>
@@ -7279,8 +9302,29 @@
       <c r="N70" t="s">
         <v>1350</v>
       </c>
-    </row>
-    <row r="71" spans="1:14">
+      <c r="O70" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P70" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q70" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R70" s="3" t="s">
+        <v>1436</v>
+      </c>
+      <c r="S70" s="3">
+        <v>50</v>
+      </c>
+      <c r="T70" s="3">
+        <v>25</v>
+      </c>
+      <c r="U70" s="3" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>83</v>
       </c>
@@ -7317,8 +9361,29 @@
       <c r="N71" t="s">
         <v>1351</v>
       </c>
-    </row>
-    <row r="72" spans="1:14">
+      <c r="O71" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P71" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q71" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R71" s="3" t="s">
+        <v>1450</v>
+      </c>
+      <c r="S71" s="3">
+        <v>100</v>
+      </c>
+      <c r="T71" s="3">
+        <v>50</v>
+      </c>
+      <c r="U71" s="3" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>84</v>
       </c>
@@ -7355,8 +9420,29 @@
       <c r="N72" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="73" spans="1:14">
+      <c r="O72" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P72" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>1442</v>
+      </c>
+      <c r="S72" s="3">
+        <v>60</v>
+      </c>
+      <c r="T72" s="3">
+        <v>30</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -7393,8 +9479,29 @@
       <c r="N73" t="s">
         <v>1353</v>
       </c>
-    </row>
-    <row r="74" spans="1:14">
+      <c r="O73" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P73" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q73" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R73" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="S73" s="3">
+        <v>50</v>
+      </c>
+      <c r="T73" s="3">
+        <v>25</v>
+      </c>
+      <c r="U73" s="3" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>86</v>
       </c>
@@ -7434,8 +9541,29 @@
       <c r="N74" t="s">
         <v>1354</v>
       </c>
-    </row>
-    <row r="75" spans="1:14">
+      <c r="O74" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P74" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q74" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R74" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="S74" s="3">
+        <v>300</v>
+      </c>
+      <c r="T74" s="3">
+        <v>185</v>
+      </c>
+      <c r="U74" s="3" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -7475,8 +9603,29 @@
       <c r="N75" t="s">
         <v>1355</v>
       </c>
-    </row>
-    <row r="76" spans="1:14">
+      <c r="O75" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P75" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q75" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R75" s="3" t="s">
+        <v>1450</v>
+      </c>
+      <c r="S75" s="3">
+        <v>90</v>
+      </c>
+      <c r="T75" s="3">
+        <v>60</v>
+      </c>
+      <c r="U75" s="3" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>88</v>
       </c>
@@ -7513,8 +9662,29 @@
       <c r="N76" t="s">
         <v>1356</v>
       </c>
-    </row>
-    <row r="77" spans="1:14">
+      <c r="O76" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P76" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="S76" s="3">
+        <v>40</v>
+      </c>
+      <c r="T76" s="3">
+        <v>20</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>89</v>
       </c>
@@ -7551,8 +9721,29 @@
       <c r="N77" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="78" spans="1:14">
+      <c r="O77" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P77" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q77" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R77" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="S77" s="3">
+        <v>100</v>
+      </c>
+      <c r="T77" s="3">
+        <v>50</v>
+      </c>
+      <c r="U77" s="3" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>90</v>
       </c>
@@ -7589,8 +9780,29 @@
       <c r="N78" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="79" spans="1:14">
+      <c r="O78" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P78" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q78" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R78" s="3" t="s">
+        <v>1443</v>
+      </c>
+      <c r="S78" s="3">
+        <v>80</v>
+      </c>
+      <c r="T78" s="3">
+        <v>40</v>
+      </c>
+      <c r="U78" s="3" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>91</v>
       </c>
@@ -7630,8 +9842,29 @@
       <c r="N79" t="s">
         <v>1359</v>
       </c>
-    </row>
-    <row r="80" spans="1:14">
+      <c r="O79" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P79" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q79" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R79" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="S79" s="3">
+        <v>150</v>
+      </c>
+      <c r="T79" s="3">
+        <v>70</v>
+      </c>
+      <c r="U79" s="3" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>92</v>
       </c>
@@ -7668,8 +9901,29 @@
       <c r="N80" t="s">
         <v>1360</v>
       </c>
-    </row>
-    <row r="81" spans="1:14">
+      <c r="O80" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P80" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q80" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R80" s="3" t="s">
+        <v>1441</v>
+      </c>
+      <c r="S80" s="3">
+        <v>60</v>
+      </c>
+      <c r="T80" s="3">
+        <v>30</v>
+      </c>
+      <c r="U80" s="3" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>93</v>
       </c>
@@ -7706,8 +9960,29 @@
       <c r="N81" t="s">
         <v>1361</v>
       </c>
-    </row>
-    <row r="82" spans="1:14">
+      <c r="O81" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P81" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>1442</v>
+      </c>
+      <c r="S81" s="3">
+        <v>40</v>
+      </c>
+      <c r="T81" s="3">
+        <v>20</v>
+      </c>
+      <c r="U81" s="3" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>94</v>
       </c>
@@ -7741,8 +10016,29 @@
       <c r="N82" t="s">
         <v>1362</v>
       </c>
-    </row>
-    <row r="83" spans="1:14">
+      <c r="O82" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P82" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q82" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R82" s="3" t="s">
+        <v>1453</v>
+      </c>
+      <c r="S82" s="3">
+        <v>80</v>
+      </c>
+      <c r="T82" s="3">
+        <v>40</v>
+      </c>
+      <c r="U82" s="3" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>95</v>
       </c>
@@ -7779,8 +10075,29 @@
       <c r="N83" t="s">
         <v>1363</v>
       </c>
-    </row>
-    <row r="84" spans="1:14">
+      <c r="O83" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P83" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="S83" s="3">
+        <v>60</v>
+      </c>
+      <c r="T83" s="3">
+        <v>30</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>96</v>
       </c>
@@ -7817,8 +10134,29 @@
       <c r="N84" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="85" spans="1:14">
+      <c r="O84" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P84" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q84" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R84" s="3" t="s">
+        <v>1439</v>
+      </c>
+      <c r="S84" s="3">
+        <v>50</v>
+      </c>
+      <c r="T84" s="3">
+        <v>25</v>
+      </c>
+      <c r="U84" s="3" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>97</v>
       </c>
@@ -7855,8 +10193,29 @@
       <c r="N85" t="s">
         <v>1365</v>
       </c>
-    </row>
-    <row r="86" spans="1:14">
+      <c r="O85" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P85" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q85" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R85" s="3" t="s">
+        <v>1454</v>
+      </c>
+      <c r="S85" s="3">
+        <v>600</v>
+      </c>
+      <c r="T85" s="3">
+        <v>227</v>
+      </c>
+      <c r="U85" s="3" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>98</v>
       </c>
@@ -7893,8 +10252,29 @@
       <c r="N86" t="s">
         <v>1366</v>
       </c>
-    </row>
-    <row r="87" spans="1:14">
+      <c r="O86" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P86" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q86" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R86" s="3" t="s">
+        <v>1428</v>
+      </c>
+      <c r="S86" s="3">
+        <v>40</v>
+      </c>
+      <c r="T86" s="3">
+        <v>20</v>
+      </c>
+      <c r="U86" s="3" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>99</v>
       </c>
@@ -7931,8 +10311,29 @@
       <c r="N87" t="s">
         <v>1367</v>
       </c>
-    </row>
-    <row r="88" spans="1:14">
+      <c r="O87" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P87" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q87" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R87" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="S87" s="3">
+        <v>120</v>
+      </c>
+      <c r="T87" s="3">
+        <v>70</v>
+      </c>
+      <c r="U87" s="3" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>100</v>
       </c>
@@ -7969,8 +10370,29 @@
       <c r="N88" t="s">
         <v>1368</v>
       </c>
-    </row>
-    <row r="89" spans="1:14">
+      <c r="O88" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P88" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q88" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R88" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="S88" s="3">
+        <v>50</v>
+      </c>
+      <c r="T88" s="3">
+        <v>30</v>
+      </c>
+      <c r="U88" s="3" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>101</v>
       </c>
@@ -8007,8 +10429,29 @@
       <c r="N89" t="s">
         <v>1369</v>
       </c>
-    </row>
-    <row r="90" spans="1:14">
+      <c r="O89" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P89" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>1441</v>
+      </c>
+      <c r="S89" s="3">
+        <v>80</v>
+      </c>
+      <c r="T89" s="3">
+        <v>40</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>102</v>
       </c>
@@ -8045,8 +10488,29 @@
       <c r="N90" t="s">
         <v>1370</v>
       </c>
-    </row>
-    <row r="91" spans="1:14">
+      <c r="O90" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P90" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q90" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R90" s="3" t="s">
+        <v>1429</v>
+      </c>
+      <c r="S90" s="3">
+        <v>60</v>
+      </c>
+      <c r="T90" s="3">
+        <v>35</v>
+      </c>
+      <c r="U90" s="3" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>103</v>
       </c>
@@ -8083,8 +10547,29 @@
       <c r="N91" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="92" spans="1:14">
+      <c r="O91" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P91" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>1442</v>
+      </c>
+      <c r="S91" s="3">
+        <v>50</v>
+      </c>
+      <c r="T91" s="3">
+        <v>25</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>104</v>
       </c>
@@ -8121,8 +10606,29 @@
       <c r="N92" t="s">
         <v>1372</v>
       </c>
-    </row>
-    <row r="93" spans="1:14">
+      <c r="O92" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P92" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q92" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R92" s="3" t="s">
+        <v>1439</v>
+      </c>
+      <c r="S92" s="3">
+        <v>40</v>
+      </c>
+      <c r="T92" s="3">
+        <v>20</v>
+      </c>
+      <c r="U92" s="3" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>105</v>
       </c>
@@ -8159,8 +10665,29 @@
       <c r="N93" t="s">
         <v>1373</v>
       </c>
-    </row>
-    <row r="94" spans="1:14">
+      <c r="O93" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P93" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q93" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R93" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="S93" s="3">
+        <v>150</v>
+      </c>
+      <c r="T93" s="3">
+        <v>80</v>
+      </c>
+      <c r="U93" s="3" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>106</v>
       </c>
@@ -8197,8 +10724,29 @@
       <c r="N94" t="s">
         <v>1374</v>
       </c>
-    </row>
-    <row r="95" spans="1:14">
+      <c r="O94" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P94" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>1443</v>
+      </c>
+      <c r="S94" s="3">
+        <v>30</v>
+      </c>
+      <c r="T94" s="3">
+        <v>15</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>107</v>
       </c>
@@ -8235,8 +10783,29 @@
       <c r="N95" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="96" spans="1:14">
+      <c r="O95" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="P95" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q95" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R95" s="3" t="s">
+        <v>1449</v>
+      </c>
+      <c r="S95" s="3">
+        <v>200</v>
+      </c>
+      <c r="T95" s="3">
+        <v>120</v>
+      </c>
+      <c r="U95" s="3" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>108</v>
       </c>
@@ -8273,8 +10842,29 @@
       <c r="N96" t="s">
         <v>1376</v>
       </c>
-    </row>
-    <row r="97" spans="1:14">
+      <c r="O96" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P96" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q96" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R96" s="3" t="s">
+        <v>1442</v>
+      </c>
+      <c r="S96" s="3">
+        <v>70</v>
+      </c>
+      <c r="T96" s="3">
+        <v>35</v>
+      </c>
+      <c r="U96" s="3" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>109</v>
       </c>
@@ -8311,8 +10901,29 @@
       <c r="N97" t="s">
         <v>1377</v>
       </c>
-    </row>
-    <row r="98" spans="1:14">
+      <c r="O97" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P97" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q97" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R97" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="S97" s="3">
+        <v>100</v>
+      </c>
+      <c r="T97" s="3">
+        <v>60</v>
+      </c>
+      <c r="U97" s="3" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>110</v>
       </c>
@@ -8349,8 +10960,29 @@
       <c r="N98" t="s">
         <v>1378</v>
       </c>
-    </row>
-    <row r="99" spans="1:14">
+      <c r="O98" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="P98" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q98" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R98" s="3" t="s">
+        <v>1455</v>
+      </c>
+      <c r="S98" s="3">
+        <v>400</v>
+      </c>
+      <c r="T98" s="3">
+        <v>217</v>
+      </c>
+      <c r="U98" s="3" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>111</v>
       </c>
@@ -8384,8 +11016,29 @@
       <c r="N99" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="100" spans="1:14">
+      <c r="O99" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P99" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q99" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R99" s="3" t="s">
+        <v>1453</v>
+      </c>
+      <c r="S99" s="3">
+        <v>80</v>
+      </c>
+      <c r="T99" s="3">
+        <v>45</v>
+      </c>
+      <c r="U99" s="3" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>112</v>
       </c>
@@ -8422,8 +11075,29 @@
       <c r="N100" t="s">
         <v>1380</v>
       </c>
-    </row>
-    <row r="101" spans="1:14">
+      <c r="O100" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="P100" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>1456</v>
+      </c>
+      <c r="S100" s="3">
+        <v>300</v>
+      </c>
+      <c r="T100" s="3">
+        <v>250</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>113</v>
       </c>
@@ -8460,8 +11134,29 @@
       <c r="N101" t="s">
         <v>1381</v>
       </c>
-    </row>
-    <row r="102" spans="1:14">
+      <c r="O101" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P101" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="S101" s="3">
+        <v>120</v>
+      </c>
+      <c r="T101" s="3">
+        <v>70</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>114</v>
       </c>
@@ -8498,8 +11193,29 @@
       <c r="N102" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="103" spans="1:14">
+      <c r="O102" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P102" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="S102" s="3">
+        <v>100</v>
+      </c>
+      <c r="T102" s="3">
+        <v>60</v>
+      </c>
+      <c r="U102" s="3" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>115</v>
       </c>
@@ -8536,8 +11252,29 @@
       <c r="N103" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="104" spans="1:14">
+      <c r="O103" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P103" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q103" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R103" s="3" t="s">
+        <v>1450</v>
+      </c>
+      <c r="S103" s="3">
+        <v>80</v>
+      </c>
+      <c r="T103" s="3">
+        <v>40</v>
+      </c>
+      <c r="U103" s="3" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>116</v>
       </c>
@@ -8574,8 +11311,29 @@
       <c r="N104" t="s">
         <v>1384</v>
       </c>
-    </row>
-    <row r="105" spans="1:14">
+      <c r="O104" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P104" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q104" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R104" s="3" t="s">
+        <v>1442</v>
+      </c>
+      <c r="S104" s="3">
+        <v>50</v>
+      </c>
+      <c r="T104" s="3">
+        <v>25</v>
+      </c>
+      <c r="U104" s="3" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>117</v>
       </c>
@@ -8612,8 +11370,29 @@
       <c r="N105" t="s">
         <v>1385</v>
       </c>
-    </row>
-    <row r="106" spans="1:14">
+      <c r="O105" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="P105" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q105" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R105" s="3" t="s">
+        <v>1431</v>
+      </c>
+      <c r="S105" s="3">
+        <v>150</v>
+      </c>
+      <c r="T105" s="3">
+        <v>90</v>
+      </c>
+      <c r="U105" s="3" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>118</v>
       </c>
@@ -8650,8 +11429,29 @@
       <c r="N106" t="s">
         <v>1386</v>
       </c>
-    </row>
-    <row r="107" spans="1:14">
+      <c r="O106" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P106" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q106" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R106" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="S106" s="3">
+        <v>90</v>
+      </c>
+      <c r="T106" s="3">
+        <v>60</v>
+      </c>
+      <c r="U106" s="3" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>119</v>
       </c>
@@ -8688,8 +11488,29 @@
       <c r="N107" t="s">
         <v>1387</v>
       </c>
-    </row>
-    <row r="108" spans="1:14">
+      <c r="O107" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="P107" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q107" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R107" s="3" t="s">
+        <v>1451</v>
+      </c>
+      <c r="S107" s="3">
+        <v>350</v>
+      </c>
+      <c r="T107" s="3">
+        <v>200</v>
+      </c>
+      <c r="U107" s="3" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>120</v>
       </c>
@@ -8726,8 +11547,29 @@
       <c r="N108" t="s">
         <v>1388</v>
       </c>
-    </row>
-    <row r="109" spans="1:14">
+      <c r="O108" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P108" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q108" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R108" s="3" t="s">
+        <v>1426</v>
+      </c>
+      <c r="S108" s="3">
+        <v>80</v>
+      </c>
+      <c r="T108" s="3">
+        <v>50</v>
+      </c>
+      <c r="U108" s="3" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>121</v>
       </c>
@@ -8764,8 +11606,29 @@
       <c r="N109" t="s">
         <v>1389</v>
       </c>
-    </row>
-    <row r="110" spans="1:14">
+      <c r="O109" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="P109" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q109" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R109" s="3" t="s">
+        <v>1422</v>
+      </c>
+      <c r="S109" s="3">
+        <v>500</v>
+      </c>
+      <c r="T109" s="3">
+        <v>361</v>
+      </c>
+      <c r="U109" s="3" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>122</v>
       </c>
@@ -8799,8 +11662,29 @@
       <c r="N110" t="s">
         <v>1390</v>
       </c>
-    </row>
-    <row r="111" spans="1:14">
+      <c r="O110" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P110" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q110" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R110" s="3" t="s">
+        <v>1439</v>
+      </c>
+      <c r="S110" s="3">
+        <v>50</v>
+      </c>
+      <c r="T110" s="3">
+        <v>25</v>
+      </c>
+      <c r="U110" s="3" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>123</v>
       </c>
@@ -8837,8 +11721,29 @@
       <c r="N111" t="s">
         <v>1391</v>
       </c>
-    </row>
-    <row r="112" spans="1:14">
+      <c r="O111" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="P111" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q111" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R111" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="S111" s="3">
+        <v>300</v>
+      </c>
+      <c r="T111" s="3">
+        <v>150</v>
+      </c>
+      <c r="U111" s="3" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>124</v>
       </c>
@@ -8875,8 +11780,29 @@
       <c r="N112" t="s">
         <v>1392</v>
       </c>
-    </row>
-    <row r="113" spans="1:14">
+      <c r="O112" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P112" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q112" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R112" s="3" t="s">
+        <v>1457</v>
+      </c>
+      <c r="S112" s="3">
+        <v>150</v>
+      </c>
+      <c r="T112" s="3">
+        <v>100</v>
+      </c>
+      <c r="U112" s="3" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>125</v>
       </c>
@@ -8913,8 +11839,29 @@
       <c r="N113" t="s">
         <v>1393</v>
       </c>
-    </row>
-    <row r="114" spans="1:14">
+      <c r="O113" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P113" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q113" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R113" s="3" t="s">
+        <v>1452</v>
+      </c>
+      <c r="S113" s="3">
+        <v>60</v>
+      </c>
+      <c r="T113" s="3">
+        <v>35</v>
+      </c>
+      <c r="U113" s="3" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>126</v>
       </c>
@@ -8951,8 +11898,29 @@
       <c r="N114" t="s">
         <v>1394</v>
       </c>
-    </row>
-    <row r="115" spans="1:14">
+      <c r="O114" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P114" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q114" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R114" s="3" t="s">
+        <v>1439</v>
+      </c>
+      <c r="S114" s="3">
+        <v>50</v>
+      </c>
+      <c r="T114" s="3">
+        <v>30</v>
+      </c>
+      <c r="U114" s="3" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>127</v>
       </c>
@@ -8989,8 +11957,29 @@
       <c r="N115" t="s">
         <v>1395</v>
       </c>
-    </row>
-    <row r="116" spans="1:14">
+      <c r="O115" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P115" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q115" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R115" s="3" t="s">
+        <v>1450</v>
+      </c>
+      <c r="S115" s="3">
+        <v>60</v>
+      </c>
+      <c r="T115" s="3">
+        <v>30</v>
+      </c>
+      <c r="U115" s="3" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>128</v>
       </c>
@@ -9027,8 +12016,29 @@
       <c r="N116" t="s">
         <v>1396</v>
       </c>
-    </row>
-    <row r="117" spans="1:14">
+      <c r="O116" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P116" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q116" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R116" s="3" t="s">
+        <v>1458</v>
+      </c>
+      <c r="S116" s="3">
+        <v>300</v>
+      </c>
+      <c r="T116" s="3">
+        <v>258</v>
+      </c>
+      <c r="U116" s="3" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>129</v>
       </c>
@@ -9065,8 +12075,29 @@
       <c r="N117" t="s">
         <v>1397</v>
       </c>
-    </row>
-    <row r="118" spans="1:14">
+      <c r="O117" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="P117" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q117" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R117" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="S117" s="3">
+        <v>600</v>
+      </c>
+      <c r="T117" s="3">
+        <v>299</v>
+      </c>
+      <c r="U117" s="3" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>130</v>
       </c>
@@ -9103,8 +12134,29 @@
       <c r="N118" t="s">
         <v>1398</v>
       </c>
-    </row>
-    <row r="119" spans="1:14">
+      <c r="O118" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="P118" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q118" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R118" s="3" t="s">
+        <v>1449</v>
+      </c>
+      <c r="S118" s="3">
+        <v>400</v>
+      </c>
+      <c r="T118" s="3">
+        <v>368</v>
+      </c>
+      <c r="U118" s="3" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>131</v>
       </c>
@@ -9141,8 +12193,29 @@
       <c r="N119" t="s">
         <v>1399</v>
       </c>
-    </row>
-    <row r="120" spans="1:14">
+      <c r="O119" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P119" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q119" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R119" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="S119" s="3">
+        <v>120</v>
+      </c>
+      <c r="T119" s="3">
+        <v>70</v>
+      </c>
+      <c r="U119" s="3" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>132</v>
       </c>
@@ -9179,8 +12252,29 @@
       <c r="N120" t="s">
         <v>1400</v>
       </c>
-    </row>
-    <row r="121" spans="1:14">
+      <c r="O120" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P120" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q120" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R120" s="3" t="s">
+        <v>1443</v>
+      </c>
+      <c r="S120" s="3">
+        <v>60</v>
+      </c>
+      <c r="T120" s="3">
+        <v>30</v>
+      </c>
+      <c r="U120" s="3" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>133</v>
       </c>
@@ -9217,8 +12311,29 @@
       <c r="N121" t="s">
         <v>1401</v>
       </c>
-    </row>
-    <row r="122" spans="1:14">
+      <c r="O121" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="P121" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q121" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R121" s="3" t="s">
+        <v>1460</v>
+      </c>
+      <c r="S121" s="3">
+        <v>500</v>
+      </c>
+      <c r="T121" s="3">
+        <v>327</v>
+      </c>
+      <c r="U121" s="3" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>134</v>
       </c>
@@ -9258,8 +12373,29 @@
       <c r="N122" t="s">
         <v>1402</v>
       </c>
-    </row>
-    <row r="123" spans="1:14">
+      <c r="O122" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="P122" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q122" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R122" s="3" t="s">
+        <v>1461</v>
+      </c>
+      <c r="S122" s="3">
+        <v>600</v>
+      </c>
+      <c r="T122" s="3">
+        <v>565</v>
+      </c>
+      <c r="U122" s="3" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>135</v>
       </c>
@@ -9299,8 +12435,29 @@
       <c r="N123" t="s">
         <v>1403</v>
       </c>
-    </row>
-    <row r="124" spans="1:14">
+      <c r="O123" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P123" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q123" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R123" s="3" t="s">
+        <v>1440</v>
+      </c>
+      <c r="S123" s="3">
+        <v>250</v>
+      </c>
+      <c r="T123" s="3">
+        <v>234</v>
+      </c>
+      <c r="U123" s="3" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>136</v>
       </c>
@@ -9340,8 +12497,29 @@
       <c r="N124" t="s">
         <v>1232</v>
       </c>
-    </row>
-    <row r="125" spans="1:14">
+      <c r="O124" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P124" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q124" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R124" s="3" t="s">
+        <v>1460</v>
+      </c>
+      <c r="S124" s="3">
+        <v>40</v>
+      </c>
+      <c r="T124" s="3">
+        <v>9</v>
+      </c>
+      <c r="U124" s="3" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>137</v>
       </c>
@@ -9381,8 +12559,29 @@
       <c r="N125" t="s">
         <v>1233</v>
       </c>
-    </row>
-    <row r="126" spans="1:14">
+      <c r="O125" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P125" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q125" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R125" s="3" t="s">
+        <v>1462</v>
+      </c>
+      <c r="S125" s="3">
+        <v>200</v>
+      </c>
+      <c r="T125" s="3">
+        <v>180</v>
+      </c>
+      <c r="U125" s="3" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>138</v>
       </c>
@@ -9422,8 +12621,29 @@
       <c r="N126" t="s">
         <v>1234</v>
       </c>
-    </row>
-    <row r="127" spans="1:14">
+      <c r="O126" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="P126" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q126" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R126" s="3" t="s">
+        <v>1465</v>
+      </c>
+      <c r="S126" s="3">
+        <v>400</v>
+      </c>
+      <c r="T126" s="3">
+        <v>564</v>
+      </c>
+      <c r="U126" s="3" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>139</v>
       </c>
@@ -9463,8 +12683,29 @@
       <c r="N127" t="s">
         <v>1235</v>
       </c>
-    </row>
-    <row r="128" spans="1:14">
+      <c r="O127" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="P127" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q127" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R127" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="S127" s="3">
+        <v>500</v>
+      </c>
+      <c r="T127" s="3">
+        <v>420</v>
+      </c>
+      <c r="U127" s="3" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>140</v>
       </c>
@@ -9504,8 +12745,29 @@
       <c r="N128" t="s">
         <v>1227</v>
       </c>
-    </row>
-    <row r="129" spans="1:14">
+      <c r="O128" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P128" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q128" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R128" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="S128" s="3">
+        <v>150</v>
+      </c>
+      <c r="T128" s="3">
+        <v>90</v>
+      </c>
+      <c r="U128" s="3" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>141</v>
       </c>
@@ -9545,8 +12807,29 @@
       <c r="N129" t="s">
         <v>1227</v>
       </c>
-    </row>
-    <row r="130" spans="1:14">
+      <c r="O129" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="P129" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q129" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R129" s="3" t="s">
+        <v>1464</v>
+      </c>
+      <c r="S129" s="3">
+        <v>40</v>
+      </c>
+      <c r="T129" s="3">
+        <v>20</v>
+      </c>
+      <c r="U129" s="3" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>142</v>
       </c>
@@ -9586,8 +12869,29 @@
       <c r="N130" t="s">
         <v>1227</v>
       </c>
-    </row>
-    <row r="131" spans="1:14">
+      <c r="O130" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P130" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q130" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R130" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="S130" s="3">
+        <v>100</v>
+      </c>
+      <c r="T130" s="3">
+        <v>60</v>
+      </c>
+      <c r="U130" s="3" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>143</v>
       </c>
@@ -9627,8 +12931,29 @@
       <c r="N131" t="s">
         <v>1227</v>
       </c>
-    </row>
-    <row r="132" spans="1:14">
+      <c r="O131" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P131" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q131" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R131" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="S131" s="3">
+        <v>250</v>
+      </c>
+      <c r="T131" s="3">
+        <v>180</v>
+      </c>
+      <c r="U131" s="3" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>144</v>
       </c>
@@ -9668,8 +12993,29 @@
       <c r="N132" t="s">
         <v>1236</v>
       </c>
-    </row>
-    <row r="133" spans="1:14">
+      <c r="O132" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="P132" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q132" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R132" s="3" t="s">
+        <v>1437</v>
+      </c>
+      <c r="S132" s="3">
+        <v>300</v>
+      </c>
+      <c r="T132" s="3">
+        <v>154</v>
+      </c>
+      <c r="U132" s="3" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>145</v>
       </c>
@@ -9709,8 +13055,29 @@
       <c r="N133" t="s">
         <v>1237</v>
       </c>
-    </row>
-    <row r="134" spans="1:14">
+      <c r="O133" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="P133" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q133" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R133" s="3" t="s">
+        <v>1466</v>
+      </c>
+      <c r="S133" s="3">
+        <v>800</v>
+      </c>
+      <c r="T133" s="3">
+        <v>802</v>
+      </c>
+      <c r="U133" s="3" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>146</v>
       </c>
@@ -9750,8 +13117,29 @@
       <c r="N134" t="s">
         <v>1238</v>
       </c>
-    </row>
-    <row r="135" spans="1:14">
+      <c r="O134" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P134" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q134" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R134" s="3" t="s">
+        <v>1436</v>
+      </c>
+      <c r="S134" s="3">
+        <v>500</v>
+      </c>
+      <c r="T134" s="3">
+        <v>437</v>
+      </c>
+      <c r="U134" s="3" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>147</v>
       </c>
@@ -9791,8 +13179,29 @@
       <c r="N135" t="s">
         <v>1239</v>
       </c>
-    </row>
-    <row r="136" spans="1:14">
+      <c r="O135" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P135" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q135" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R135" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="S135" s="3">
+        <v>700</v>
+      </c>
+      <c r="T135" s="3">
+        <v>760</v>
+      </c>
+      <c r="U135" s="3" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>148</v>
       </c>
@@ -9832,8 +13241,29 @@
       <c r="N136" t="s">
         <v>1240</v>
       </c>
-    </row>
-    <row r="137" spans="1:14">
+      <c r="O136" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="P136" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q136" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R136" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="S136" s="3">
+        <v>500</v>
+      </c>
+      <c r="T136" s="3">
+        <v>391</v>
+      </c>
+      <c r="U136" s="3" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>149</v>
       </c>
@@ -9873,8 +13303,29 @@
       <c r="N137" t="s">
         <v>1241</v>
       </c>
-    </row>
-    <row r="138" spans="1:14">
+      <c r="O137" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P137" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q137" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R137" s="3" t="s">
+        <v>1440</v>
+      </c>
+      <c r="S137" s="3">
+        <v>600</v>
+      </c>
+      <c r="T137" s="3">
+        <v>261</v>
+      </c>
+      <c r="U137" s="3" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>150</v>
       </c>
@@ -9914,8 +13365,29 @@
       <c r="N138" t="s">
         <v>1242</v>
       </c>
-    </row>
-    <row r="139" spans="1:14">
+      <c r="O138" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P138" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q138" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R138" s="3" t="s">
+        <v>1428</v>
+      </c>
+      <c r="S138" s="3">
+        <v>60</v>
+      </c>
+      <c r="T138" s="3">
+        <v>30</v>
+      </c>
+      <c r="U138" s="3" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>151</v>
       </c>
@@ -9955,8 +13427,29 @@
       <c r="N139" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="140" spans="1:14">
+      <c r="O139" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P139" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q139" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R139" s="3" t="s">
+        <v>1436</v>
+      </c>
+      <c r="S139" s="3">
+        <v>400</v>
+      </c>
+      <c r="T139" s="3">
+        <v>380</v>
+      </c>
+      <c r="U139" s="3" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>152</v>
       </c>
@@ -9996,8 +13489,29 @@
       <c r="N140" t="s">
         <v>1244</v>
       </c>
-    </row>
-    <row r="141" spans="1:14">
+      <c r="O140" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P140" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q140" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R140" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="S140" s="3">
+        <v>30</v>
+      </c>
+      <c r="T140" s="3">
+        <v>12</v>
+      </c>
+      <c r="U140" s="3" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>153</v>
       </c>
@@ -10037,8 +13551,29 @@
       <c r="N141" t="s">
         <v>1245</v>
       </c>
-    </row>
-    <row r="142" spans="1:14">
+      <c r="O141" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P141" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q141" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R141" s="3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="S141" s="3">
+        <v>40</v>
+      </c>
+      <c r="T141" s="3">
+        <v>15</v>
+      </c>
+      <c r="U141" s="3" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>154</v>
       </c>
@@ -10078,8 +13613,29 @@
       <c r="N142" t="s">
         <v>1246</v>
       </c>
-    </row>
-    <row r="143" spans="1:14">
+      <c r="O142" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P142" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q142" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R142" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="S142" s="3">
+        <v>120</v>
+      </c>
+      <c r="T142" s="3">
+        <v>70</v>
+      </c>
+      <c r="U142" s="3" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>155</v>
       </c>
@@ -10119,8 +13675,29 @@
       <c r="N143" t="s">
         <v>1247</v>
       </c>
-    </row>
-    <row r="144" spans="1:14">
+      <c r="O143" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P143" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q143" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R143" s="3" t="s">
+        <v>1414</v>
+      </c>
+      <c r="S143" s="3">
+        <v>400</v>
+      </c>
+      <c r="T143" s="3">
+        <v>429</v>
+      </c>
+      <c r="U143" s="3" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>156</v>
       </c>
@@ -10160,8 +13737,29 @@
       <c r="N144" t="s">
         <v>1248</v>
       </c>
-    </row>
-    <row r="145" spans="1:14">
+      <c r="O144" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P144" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q144" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R144" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="S144" s="3">
+        <v>90</v>
+      </c>
+      <c r="T144" s="3">
+        <v>45</v>
+      </c>
+      <c r="U144" s="3" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>157</v>
       </c>
@@ -10201,8 +13799,29 @@
       <c r="N145" t="s">
         <v>1249</v>
       </c>
-    </row>
-    <row r="146" spans="1:14">
+      <c r="O145" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P145" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q145" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R145" s="3" t="s">
+        <v>1438</v>
+      </c>
+      <c r="S145" s="3">
+        <v>350</v>
+      </c>
+      <c r="T145" s="3">
+        <v>218</v>
+      </c>
+      <c r="U145" s="3" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>158</v>
       </c>
@@ -10242,8 +13861,29 @@
       <c r="N146" t="s">
         <v>1250</v>
       </c>
-    </row>
-    <row r="147" spans="1:14">
+      <c r="O146" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P146" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q146" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R146" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="S146" s="3">
+        <v>100</v>
+      </c>
+      <c r="T146" s="3">
+        <v>120</v>
+      </c>
+      <c r="U146" s="3" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>159</v>
       </c>
@@ -10283,8 +13923,29 @@
       <c r="N147" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="148" spans="1:14">
+      <c r="O147" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P147" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q147" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R147" s="3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="S147" s="3">
+        <v>200</v>
+      </c>
+      <c r="T147" s="3">
+        <v>179</v>
+      </c>
+      <c r="U147" s="3" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>160</v>
       </c>
@@ -10324,8 +13985,29 @@
       <c r="N148" t="s">
         <v>1252</v>
       </c>
-    </row>
-    <row r="149" spans="1:14">
+      <c r="O148" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="P148" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q148" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R148" s="3" t="s">
+        <v>1466</v>
+      </c>
+      <c r="S148" s="3">
+        <v>400</v>
+      </c>
+      <c r="T148" s="3">
+        <v>210</v>
+      </c>
+      <c r="U148" s="3" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>161</v>
       </c>
@@ -10365,8 +14047,29 @@
       <c r="N149" t="s">
         <v>1253</v>
       </c>
-    </row>
-    <row r="150" spans="1:14">
+      <c r="O149" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P149" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q149" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R149" s="3" t="s">
+        <v>1468</v>
+      </c>
+      <c r="S149" s="3">
+        <v>150</v>
+      </c>
+      <c r="T149" s="3">
+        <v>78</v>
+      </c>
+      <c r="U149" s="3" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>162</v>
       </c>
@@ -10406,8 +14109,29 @@
       <c r="N150" t="s">
         <v>1254</v>
       </c>
-    </row>
-    <row r="151" spans="1:14">
+      <c r="O150" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P150" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q150" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R150" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="S150" s="3">
+        <v>100</v>
+      </c>
+      <c r="T150" s="3">
+        <v>65</v>
+      </c>
+      <c r="U150" s="3" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>163</v>
       </c>
@@ -10447,8 +14171,29 @@
       <c r="N151" t="s">
         <v>1255</v>
       </c>
-    </row>
-    <row r="152" spans="1:14">
+      <c r="O151" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P151" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q151" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R151" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="S151" s="3">
+        <v>400</v>
+      </c>
+      <c r="T151" s="3">
+        <v>568</v>
+      </c>
+      <c r="U151" s="3" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>164</v>
       </c>
@@ -10488,8 +14233,29 @@
       <c r="N152" t="s">
         <v>1256</v>
       </c>
-    </row>
-    <row r="153" spans="1:14">
+      <c r="O152" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P152" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q152" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R152" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="S152" s="3">
+        <v>300</v>
+      </c>
+      <c r="T152" s="3">
+        <v>325</v>
+      </c>
+      <c r="U152" s="3" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>165</v>
       </c>
@@ -10529,8 +14295,29 @@
       <c r="N153" t="s">
         <v>1257</v>
       </c>
-    </row>
-    <row r="154" spans="1:14">
+      <c r="O153" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P153" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q153" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R153" s="3" t="s">
+        <v>1436</v>
+      </c>
+      <c r="S153" s="3">
+        <v>450</v>
+      </c>
+      <c r="T153" s="3">
+        <v>400</v>
+      </c>
+      <c r="U153" s="3" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>166</v>
       </c>
@@ -10570,8 +14357,29 @@
       <c r="N154" t="s">
         <v>1258</v>
       </c>
-    </row>
-    <row r="155" spans="1:14">
+      <c r="O154" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P154" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q154" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R154" s="3" t="s">
+        <v>1469</v>
+      </c>
+      <c r="S154" s="3">
+        <v>350</v>
+      </c>
+      <c r="T154" s="3">
+        <v>284</v>
+      </c>
+      <c r="U154" s="3" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>167</v>
       </c>
@@ -10611,8 +14419,29 @@
       <c r="N155" t="s">
         <v>1259</v>
       </c>
-    </row>
-    <row r="156" spans="1:14">
+      <c r="O155" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P155" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q155" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R155" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="S155" s="3">
+        <v>500</v>
+      </c>
+      <c r="T155" s="3">
+        <v>369</v>
+      </c>
+      <c r="U155" s="3" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>168</v>
       </c>
@@ -10652,8 +14481,29 @@
       <c r="N156" t="s">
         <v>1260</v>
       </c>
-    </row>
-    <row r="157" spans="1:14">
+      <c r="O156" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P156" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q156" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R156" s="3" t="s">
+        <v>1438</v>
+      </c>
+      <c r="S156" s="3">
+        <v>300</v>
+      </c>
+      <c r="T156" s="3">
+        <v>290</v>
+      </c>
+      <c r="U156" s="3" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>169</v>
       </c>
@@ -10693,8 +14543,29 @@
       <c r="N157" t="s">
         <v>1261</v>
       </c>
-    </row>
-    <row r="158" spans="1:14">
+      <c r="O157" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P157" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q157" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R157" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="S157" s="3">
+        <v>350</v>
+      </c>
+      <c r="T157" s="3">
+        <v>230</v>
+      </c>
+      <c r="U157" s="3" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>170</v>
       </c>
@@ -10734,8 +14605,29 @@
       <c r="N158" t="s">
         <v>1262</v>
       </c>
-    </row>
-    <row r="159" spans="1:14">
+      <c r="O158" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="P158" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q158" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R158" s="3" t="s">
+        <v>1449</v>
+      </c>
+      <c r="S158" s="3">
+        <v>600</v>
+      </c>
+      <c r="T158" s="3">
+        <v>525</v>
+      </c>
+      <c r="U158" s="3" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="159" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>171</v>
       </c>
@@ -10775,8 +14667,29 @@
       <c r="N159" t="s">
         <v>1263</v>
       </c>
-    </row>
-    <row r="160" spans="1:14">
+      <c r="O159" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="P159" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q159" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R159" s="3" t="s">
+        <v>1466</v>
+      </c>
+      <c r="S159" s="3">
+        <v>400</v>
+      </c>
+      <c r="T159" s="3">
+        <v>240</v>
+      </c>
+      <c r="U159" s="3" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="160" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>172</v>
       </c>
@@ -10816,8 +14729,29 @@
       <c r="N160" t="s">
         <v>1264</v>
       </c>
-    </row>
-    <row r="161" spans="1:14">
+      <c r="O160" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="P160" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q160" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R160" s="3" t="s">
+        <v>1471</v>
+      </c>
+      <c r="S160" s="3">
+        <v>600</v>
+      </c>
+      <c r="T160" s="3">
+        <v>726</v>
+      </c>
+      <c r="U160" s="3" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="161" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>173</v>
       </c>
@@ -10857,8 +14791,29 @@
       <c r="N161" t="s">
         <v>1265</v>
       </c>
-    </row>
-    <row r="162" spans="1:14">
+      <c r="O161" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P161" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q161" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R161" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="S161" s="3">
+        <v>250</v>
+      </c>
+      <c r="T161" s="3">
+        <v>203</v>
+      </c>
+      <c r="U161" s="3" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>174</v>
       </c>
@@ -10898,8 +14853,29 @@
       <c r="N162" t="s">
         <v>1266</v>
       </c>
-    </row>
-    <row r="163" spans="1:14">
+      <c r="O162" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P162" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q162" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R162" s="3" t="s">
+        <v>1451</v>
+      </c>
+      <c r="S162" s="3">
+        <v>400</v>
+      </c>
+      <c r="T162" s="3">
+        <v>277</v>
+      </c>
+      <c r="U162" s="3" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>175</v>
       </c>
@@ -10939,8 +14915,29 @@
       <c r="N163" t="s">
         <v>1267</v>
       </c>
-    </row>
-    <row r="164" spans="1:14">
+      <c r="O163" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="P163" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q163" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R163" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="S163" s="3">
+        <v>500</v>
+      </c>
+      <c r="T163" s="3">
+        <v>684</v>
+      </c>
+      <c r="U163" s="3" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>176</v>
       </c>
@@ -10980,8 +14977,29 @@
       <c r="N164" t="s">
         <v>1268</v>
       </c>
-    </row>
-    <row r="165" spans="1:14">
+      <c r="O164" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P164" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q164" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R164" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="S164" s="3">
+        <v>100</v>
+      </c>
+      <c r="T164" s="3">
+        <v>50</v>
+      </c>
+      <c r="U164" s="3" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>177</v>
       </c>
@@ -11021,8 +15039,29 @@
       <c r="N165" t="s">
         <v>1269</v>
       </c>
-    </row>
-    <row r="166" spans="1:14">
+      <c r="O165" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P165" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q165" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R165" s="3" t="s">
+        <v>1457</v>
+      </c>
+      <c r="S165" s="3">
+        <v>200</v>
+      </c>
+      <c r="T165" s="3">
+        <v>315</v>
+      </c>
+      <c r="U165" s="3" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>178</v>
       </c>
@@ -11062,8 +15101,29 @@
       <c r="N166" t="s">
         <v>1270</v>
       </c>
-    </row>
-    <row r="167" spans="1:14">
+      <c r="O166" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="P166" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q166" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R166" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="S166" s="3">
+        <v>400</v>
+      </c>
+      <c r="T166" s="3">
+        <v>237</v>
+      </c>
+      <c r="U166" s="3" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="167" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>179</v>
       </c>
@@ -11103,8 +15163,29 @@
       <c r="N167" t="s">
         <v>1271</v>
       </c>
-    </row>
-    <row r="168" spans="1:14">
+      <c r="O167" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="P167" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q167" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R167" s="3" t="s">
+        <v>1472</v>
+      </c>
+      <c r="S167" s="3">
+        <v>300</v>
+      </c>
+      <c r="T167" s="3">
+        <v>169</v>
+      </c>
+      <c r="U167" s="3" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>180</v>
       </c>
@@ -11144,8 +15225,29 @@
       <c r="N168" t="s">
         <v>1272</v>
       </c>
-    </row>
-    <row r="169" spans="1:14">
+      <c r="O168" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="P168" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q168" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R168" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="S168" s="3">
+        <v>600</v>
+      </c>
+      <c r="T168" s="3">
+        <v>381</v>
+      </c>
+      <c r="U168" s="3" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>181</v>
       </c>
@@ -11185,8 +15287,29 @@
       <c r="N169" t="s">
         <v>1273</v>
       </c>
-    </row>
-    <row r="170" spans="1:14">
+      <c r="O169" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P169" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q169" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R169" s="3" t="s">
+        <v>1436</v>
+      </c>
+      <c r="S169" s="3">
+        <v>300</v>
+      </c>
+      <c r="T169" s="3">
+        <v>168</v>
+      </c>
+      <c r="U169" s="3" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>182</v>
       </c>
@@ -11226,8 +15349,29 @@
       <c r="N170" t="s">
         <v>1274</v>
       </c>
-    </row>
-    <row r="171" spans="1:14">
+      <c r="O170" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P170" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q170" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R170" s="3" t="s">
+        <v>1474</v>
+      </c>
+      <c r="S170" s="3">
+        <v>450</v>
+      </c>
+      <c r="T170" s="3">
+        <v>419</v>
+      </c>
+      <c r="U170" s="3" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>183</v>
       </c>
@@ -11267,8 +15411,29 @@
       <c r="N171" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="172" spans="1:14">
+      <c r="O171" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P171" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q171" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R171" s="3" t="s">
+        <v>1451</v>
+      </c>
+      <c r="S171" s="3">
+        <v>500</v>
+      </c>
+      <c r="T171" s="3">
+        <v>407</v>
+      </c>
+      <c r="U171" s="3" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>184</v>
       </c>
@@ -11308,8 +15473,29 @@
       <c r="N172" t="s">
         <v>1276</v>
       </c>
-    </row>
-    <row r="173" spans="1:14">
+      <c r="O172" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P172" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q172" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R172" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="S172" s="3">
+        <v>300</v>
+      </c>
+      <c r="T172" s="3">
+        <v>172</v>
+      </c>
+      <c r="U172" s="3" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>185</v>
       </c>
@@ -11349,8 +15535,29 @@
       <c r="N173" t="s">
         <v>1277</v>
       </c>
-    </row>
-    <row r="174" spans="1:14">
+      <c r="O173" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P173" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q173" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R173" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="S173" s="3">
+        <v>350</v>
+      </c>
+      <c r="T173" s="3">
+        <v>280</v>
+      </c>
+      <c r="U173" s="3" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>186</v>
       </c>
@@ -11390,8 +15597,29 @@
       <c r="N174" t="s">
         <v>1278</v>
       </c>
-    </row>
-    <row r="175" spans="1:14">
+      <c r="O174" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P174" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q174" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R174" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="S174" s="3">
+        <v>400</v>
+      </c>
+      <c r="T174" s="3">
+        <v>402</v>
+      </c>
+      <c r="U174" s="3" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>187</v>
       </c>
@@ -11431,8 +15659,29 @@
       <c r="N175" t="s">
         <v>1279</v>
       </c>
-    </row>
-    <row r="176" spans="1:14">
+      <c r="O175" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P175" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q175" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R175" s="3" t="s">
+        <v>1458</v>
+      </c>
+      <c r="S175" s="3">
+        <v>600</v>
+      </c>
+      <c r="T175" s="3">
+        <v>601</v>
+      </c>
+      <c r="U175" s="3" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>188</v>
       </c>
@@ -11472,8 +15721,29 @@
       <c r="N176" t="s">
         <v>1280</v>
       </c>
-    </row>
-    <row r="177" spans="1:14">
+      <c r="O176" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P176" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q176" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R176" s="3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="S176" s="3">
+        <v>450</v>
+      </c>
+      <c r="T176" s="3">
+        <v>455</v>
+      </c>
+      <c r="U176" s="3" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="177" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>189</v>
       </c>
@@ -11513,8 +15783,29 @@
       <c r="N177" t="s">
         <v>1281</v>
       </c>
-    </row>
-    <row r="178" spans="1:14">
+      <c r="O177" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P177" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q177" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R177" s="3" t="s">
+        <v>1436</v>
+      </c>
+      <c r="S177" s="3">
+        <v>300</v>
+      </c>
+      <c r="T177" s="3">
+        <v>250</v>
+      </c>
+      <c r="U177" s="3" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>190</v>
       </c>
@@ -11554,8 +15845,29 @@
       <c r="N178" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="179" spans="1:14">
+      <c r="O178" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P178" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q178" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R178" s="3" t="s">
+        <v>1440</v>
+      </c>
+      <c r="S178" s="3">
+        <v>150</v>
+      </c>
+      <c r="T178" s="3">
+        <v>75</v>
+      </c>
+      <c r="U178" s="3" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="179" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>191</v>
       </c>
@@ -11595,8 +15907,29 @@
       <c r="N179" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="180" spans="1:14">
+      <c r="O179" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P179" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q179" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R179" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="S179" s="3">
+        <v>300</v>
+      </c>
+      <c r="T179" s="3">
+        <v>176</v>
+      </c>
+      <c r="U179" s="3" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="180" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>192</v>
       </c>
@@ -11636,8 +15969,29 @@
       <c r="N180" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="181" spans="1:14">
+      <c r="O180" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P180" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q180" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R180" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="S180" s="3">
+        <v>400</v>
+      </c>
+      <c r="T180" s="3">
+        <v>500</v>
+      </c>
+      <c r="U180" s="3" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="181" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>193</v>
       </c>
@@ -11677,8 +16031,29 @@
       <c r="N181" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="182" spans="1:14">
+      <c r="O181" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P181" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q181" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R181" s="3" t="s">
+        <v>1478</v>
+      </c>
+      <c r="S181" s="3">
+        <v>150</v>
+      </c>
+      <c r="T181" s="3">
+        <v>73</v>
+      </c>
+      <c r="U181" s="3" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="182" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>194</v>
       </c>
@@ -11718,8 +16093,29 @@
       <c r="N182" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="183" spans="1:14">
+      <c r="O182" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="P182" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q182" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R182" s="3" t="s">
+        <v>1479</v>
+      </c>
+      <c r="S182" s="3">
+        <v>500</v>
+      </c>
+      <c r="T182" s="3">
+        <v>370</v>
+      </c>
+      <c r="U182" s="3" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="183" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>195</v>
       </c>
@@ -11759,8 +16155,29 @@
       <c r="N183" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="184" spans="1:14">
+      <c r="O183" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P183" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q183" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R183" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="S183" s="3">
+        <v>450</v>
+      </c>
+      <c r="T183" s="3">
+        <v>605</v>
+      </c>
+      <c r="U183" s="3" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>196</v>
       </c>
@@ -11800,8 +16217,29 @@
       <c r="N184" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="185" spans="1:14">
+      <c r="O184" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="P184" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q184" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R184" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="S184" s="3">
+        <v>400</v>
+      </c>
+      <c r="T184" s="3">
+        <v>345</v>
+      </c>
+      <c r="U184" s="3" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>197</v>
       </c>
@@ -11841,8 +16279,29 @@
       <c r="N185" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="186" spans="1:14">
+      <c r="O185" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P185" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q185" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R185" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="S185" s="3">
+        <v>100</v>
+      </c>
+      <c r="T185" s="3">
+        <v>80</v>
+      </c>
+      <c r="U185" s="3" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>198</v>
       </c>
@@ -11882,8 +16341,29 @@
       <c r="N186" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="187" spans="1:14">
+      <c r="O186" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P186" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q186" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R186" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="S186" s="3">
+        <v>90</v>
+      </c>
+      <c r="T186" s="3">
+        <v>45</v>
+      </c>
+      <c r="U186" s="3" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>199</v>
       </c>
@@ -11923,8 +16403,29 @@
       <c r="N187" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="O187" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P187" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q187" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R187" s="3" t="s">
+        <v>1436</v>
+      </c>
+      <c r="S187" s="3">
+        <v>450</v>
+      </c>
+      <c r="T187" s="3">
+        <v>512</v>
+      </c>
+      <c r="U187" s="3" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>200</v>
       </c>
@@ -11964,8 +16465,29 @@
       <c r="N188" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="O188" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P188" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q188" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R188" s="3" t="s">
+        <v>1451</v>
+      </c>
+      <c r="S188" s="3">
+        <v>350</v>
+      </c>
+      <c r="T188" s="3">
+        <v>469</v>
+      </c>
+      <c r="U188" s="3" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>201</v>
       </c>
@@ -12005,8 +16527,29 @@
       <c r="N189" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="190" spans="1:14">
+      <c r="O189" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P189" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q189" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R189" s="3" t="s">
+        <v>1481</v>
+      </c>
+      <c r="S189" s="3">
+        <v>400</v>
+      </c>
+      <c r="T189" s="3">
+        <v>354</v>
+      </c>
+      <c r="U189" s="3" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>202</v>
       </c>
@@ -12046,8 +16589,29 @@
       <c r="N190" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="191" spans="1:14">
+      <c r="O190" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P190" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q190" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R190" s="3" t="s">
+        <v>1472</v>
+      </c>
+      <c r="S190" s="3">
+        <v>50</v>
+      </c>
+      <c r="T190" s="3">
+        <v>17</v>
+      </c>
+      <c r="U190" s="3" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>203</v>
       </c>
@@ -12087,8 +16651,29 @@
       <c r="N191" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="192" spans="1:14">
+      <c r="O191" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P191" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q191" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R191" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="S191" s="3" t="s">
+        <v>1484</v>
+      </c>
+      <c r="T191" s="3" t="s">
+        <v>1485</v>
+      </c>
+      <c r="U191" s="3" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>204</v>
       </c>
@@ -12128,8 +16713,29 @@
       <c r="N192" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="193" spans="1:14">
+      <c r="O192" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="P192" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q192" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R192" s="3" t="s">
+        <v>1472</v>
+      </c>
+      <c r="S192" s="3">
+        <v>400</v>
+      </c>
+      <c r="T192" s="3">
+        <v>300</v>
+      </c>
+      <c r="U192" s="3" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>205</v>
       </c>
@@ -12169,8 +16775,29 @@
       <c r="N193" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="194" spans="1:14">
+      <c r="O193" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P193" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q193" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R193" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="S193" s="3">
+        <v>250</v>
+      </c>
+      <c r="T193" s="3">
+        <v>315</v>
+      </c>
+      <c r="U193" s="3" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>206</v>
       </c>
@@ -12210,8 +16837,29 @@
       <c r="N194" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="195" spans="1:14">
+      <c r="O194" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="P194" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q194" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R194" s="3" t="s">
+        <v>1482</v>
+      </c>
+      <c r="S194" s="3">
+        <v>350</v>
+      </c>
+      <c r="T194" s="3">
+        <v>282</v>
+      </c>
+      <c r="U194" s="3" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>207</v>
       </c>
@@ -12251,8 +16899,29 @@
       <c r="N195" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="196" spans="1:14">
+      <c r="O195" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P195" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q195" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R195" s="3" t="s">
+        <v>1474</v>
+      </c>
+      <c r="S195" s="3">
+        <v>200</v>
+      </c>
+      <c r="T195" s="3">
+        <v>184</v>
+      </c>
+      <c r="U195" s="3" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="196" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>208</v>
       </c>
@@ -12292,8 +16961,29 @@
       <c r="N196" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="197" spans="1:14">
+      <c r="O196" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="P196" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q196" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R196" s="3" t="s">
+        <v>1462</v>
+      </c>
+      <c r="S196" s="3">
+        <v>500</v>
+      </c>
+      <c r="T196" s="3">
+        <v>441</v>
+      </c>
+      <c r="U196" s="3" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="197" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>209</v>
       </c>
@@ -12333,8 +17023,29 @@
       <c r="N197" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="198" spans="1:14">
+      <c r="O197" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P197" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q197" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R197" s="3" t="s">
+        <v>1483</v>
+      </c>
+      <c r="S197" s="3">
+        <v>250</v>
+      </c>
+      <c r="T197" s="3">
+        <v>190</v>
+      </c>
+      <c r="U197" s="3" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="198" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>210</v>
       </c>
@@ -12374,8 +17085,29 @@
       <c r="N198" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="199" spans="1:14">
+      <c r="O198" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="P198" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q198" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R198" s="3" t="s">
+        <v>1449</v>
+      </c>
+      <c r="S198" s="3">
+        <v>400</v>
+      </c>
+      <c r="T198" s="3">
+        <v>300</v>
+      </c>
+      <c r="U198" s="3" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="199" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>211</v>
       </c>
@@ -12415,8 +17147,29 @@
       <c r="N199" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="200" spans="1:14">
+      <c r="O199" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P199" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q199" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R199" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="S199" s="3">
+        <v>250</v>
+      </c>
+      <c r="T199" s="3">
+        <v>200</v>
+      </c>
+      <c r="U199" s="3" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="200" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>212</v>
       </c>
@@ -12456,8 +17209,29 @@
       <c r="N200" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="201" spans="1:14">
+      <c r="O200" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P200" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q200" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R200" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="S200" s="3">
+        <v>100</v>
+      </c>
+      <c r="T200" s="3">
+        <v>90</v>
+      </c>
+      <c r="U200" s="3" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="201" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>213</v>
       </c>
@@ -12497,8 +17271,29 @@
       <c r="N201" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="202" spans="1:14">
+      <c r="O201" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="P201" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q201" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R201" s="3" t="s">
+        <v>1486</v>
+      </c>
+      <c r="S201" s="3">
+        <v>350</v>
+      </c>
+      <c r="T201" s="3">
+        <v>316</v>
+      </c>
+      <c r="U201" s="3" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="202" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>214</v>
       </c>
@@ -12538,8 +17333,29 @@
       <c r="N202" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="203" spans="1:14">
+      <c r="O202" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P202" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q202" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R202" s="3" t="s">
+        <v>1438</v>
+      </c>
+      <c r="S202" s="3">
+        <v>100</v>
+      </c>
+      <c r="T202" s="3">
+        <v>79</v>
+      </c>
+      <c r="U202" s="3" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="203" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>215</v>
       </c>
@@ -12579,8 +17395,29 @@
       <c r="N203" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="204" spans="1:14">
+      <c r="O203" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="P203" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q203" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R203" s="3" t="s">
+        <v>1466</v>
+      </c>
+      <c r="S203" s="3">
+        <v>500</v>
+      </c>
+      <c r="T203" s="3">
+        <v>327</v>
+      </c>
+      <c r="U203" s="3" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="204" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>216</v>
       </c>
@@ -12620,8 +17457,29 @@
       <c r="N204" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="205" spans="1:14">
+      <c r="O204" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P204" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q204" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R204" s="3" t="s">
+        <v>1487</v>
+      </c>
+      <c r="S204" s="3">
+        <v>450</v>
+      </c>
+      <c r="T204" s="3">
+        <v>660</v>
+      </c>
+      <c r="U204" s="3" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="205" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>217</v>
       </c>
@@ -12661,8 +17519,29 @@
       <c r="N205" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="206" spans="1:14">
+      <c r="O205" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P205" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q205" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R205" s="3" t="s">
+        <v>1488</v>
+      </c>
+      <c r="S205" s="3">
+        <v>150</v>
+      </c>
+      <c r="T205" s="3">
+        <v>80</v>
+      </c>
+      <c r="U205" s="3" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="206" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>218</v>
       </c>
@@ -12702,106 +17581,128 @@
       <c r="N206" t="s">
         <v>1225</v>
       </c>
+      <c r="O206" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P206" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q206" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R206" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="S206" s="3">
+        <v>200</v>
+      </c>
+      <c r="T206" s="3">
+        <v>93</v>
+      </c>
+      <c r="U206" s="3" t="s">
+        <v>1583</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="K3" r:id="rId2"/>
-    <hyperlink ref="K4" r:id="rId3"/>
-    <hyperlink ref="K5" r:id="rId4"/>
-    <hyperlink ref="K6" r:id="rId5"/>
-    <hyperlink ref="K7" r:id="rId6"/>
-    <hyperlink ref="K37" r:id="rId7"/>
-    <hyperlink ref="K68" r:id="rId8"/>
-    <hyperlink ref="K74" r:id="rId9"/>
-    <hyperlink ref="K75" r:id="rId10"/>
-    <hyperlink ref="K79" r:id="rId11"/>
-    <hyperlink ref="K121" r:id="rId12"/>
-    <hyperlink ref="K122" r:id="rId13"/>
-    <hyperlink ref="K123" r:id="rId14"/>
-    <hyperlink ref="K124" r:id="rId15"/>
-    <hyperlink ref="K125" r:id="rId16"/>
-    <hyperlink ref="K126" r:id="rId17"/>
-    <hyperlink ref="K127" r:id="rId18"/>
-    <hyperlink ref="K128" r:id="rId19"/>
-    <hyperlink ref="K129" r:id="rId20"/>
-    <hyperlink ref="K130" r:id="rId21"/>
-    <hyperlink ref="K131" r:id="rId22"/>
-    <hyperlink ref="K132" r:id="rId23"/>
-    <hyperlink ref="K133" r:id="rId24"/>
-    <hyperlink ref="K134" r:id="rId25"/>
-    <hyperlink ref="K135" r:id="rId26"/>
-    <hyperlink ref="K136" r:id="rId27"/>
-    <hyperlink ref="K137" r:id="rId28"/>
-    <hyperlink ref="K138" r:id="rId29"/>
-    <hyperlink ref="K139" r:id="rId30"/>
-    <hyperlink ref="K140" r:id="rId31"/>
-    <hyperlink ref="K141" r:id="rId32"/>
-    <hyperlink ref="K142" r:id="rId33"/>
-    <hyperlink ref="K143" r:id="rId34"/>
-    <hyperlink ref="K144" r:id="rId35"/>
-    <hyperlink ref="K145" r:id="rId36"/>
-    <hyperlink ref="K146" r:id="rId37"/>
-    <hyperlink ref="K147" r:id="rId38"/>
-    <hyperlink ref="K148" r:id="rId39"/>
-    <hyperlink ref="K149" r:id="rId40"/>
-    <hyperlink ref="K150" r:id="rId41"/>
-    <hyperlink ref="K151" r:id="rId42"/>
-    <hyperlink ref="K152" r:id="rId43"/>
-    <hyperlink ref="K153" r:id="rId44"/>
-    <hyperlink ref="K154" r:id="rId45"/>
-    <hyperlink ref="K155" r:id="rId46"/>
-    <hyperlink ref="K156" r:id="rId47"/>
-    <hyperlink ref="K157" r:id="rId48"/>
-    <hyperlink ref="K158" r:id="rId49"/>
-    <hyperlink ref="K159" r:id="rId50"/>
-    <hyperlink ref="K160" r:id="rId51"/>
-    <hyperlink ref="K161" r:id="rId52"/>
-    <hyperlink ref="K162" r:id="rId53"/>
-    <hyperlink ref="K163" r:id="rId54"/>
-    <hyperlink ref="K164" r:id="rId55"/>
-    <hyperlink ref="K165" r:id="rId56"/>
-    <hyperlink ref="K166" r:id="rId57"/>
-    <hyperlink ref="K167" r:id="rId58"/>
-    <hyperlink ref="K168" r:id="rId59"/>
-    <hyperlink ref="K169" r:id="rId60"/>
-    <hyperlink ref="K170" r:id="rId61"/>
-    <hyperlink ref="K171" r:id="rId62"/>
-    <hyperlink ref="K172" r:id="rId63"/>
-    <hyperlink ref="K173" r:id="rId64"/>
-    <hyperlink ref="K174" r:id="rId65"/>
-    <hyperlink ref="K175" r:id="rId66"/>
-    <hyperlink ref="K176" r:id="rId67"/>
-    <hyperlink ref="K177" r:id="rId68"/>
-    <hyperlink ref="K178" r:id="rId69"/>
-    <hyperlink ref="K179" r:id="rId70"/>
-    <hyperlink ref="K180" r:id="rId71"/>
-    <hyperlink ref="K181" r:id="rId72"/>
-    <hyperlink ref="K182" r:id="rId73"/>
-    <hyperlink ref="K183" r:id="rId74"/>
-    <hyperlink ref="K184" r:id="rId75"/>
-    <hyperlink ref="K185" r:id="rId76"/>
-    <hyperlink ref="K186" r:id="rId77"/>
-    <hyperlink ref="K187" r:id="rId78"/>
-    <hyperlink ref="K188" r:id="rId79"/>
-    <hyperlink ref="K189" r:id="rId80"/>
-    <hyperlink ref="K190" r:id="rId81"/>
-    <hyperlink ref="K191" r:id="rId82"/>
-    <hyperlink ref="K192" r:id="rId83"/>
-    <hyperlink ref="K193" r:id="rId84"/>
-    <hyperlink ref="K194" r:id="rId85"/>
-    <hyperlink ref="K195" r:id="rId86"/>
-    <hyperlink ref="K196" r:id="rId87"/>
-    <hyperlink ref="K197" r:id="rId88"/>
-    <hyperlink ref="K198" r:id="rId89"/>
-    <hyperlink ref="K199" r:id="rId90"/>
-    <hyperlink ref="K200" r:id="rId91"/>
-    <hyperlink ref="K201" r:id="rId92"/>
-    <hyperlink ref="K202" r:id="rId93"/>
-    <hyperlink ref="K203" r:id="rId94"/>
-    <hyperlink ref="K204" r:id="rId95"/>
-    <hyperlink ref="K205" r:id="rId96"/>
-    <hyperlink ref="K206" r:id="rId97"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="K6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="K7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="K37" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="K68" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="K74" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="K75" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="K79" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="K121" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="K122" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="K123" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="K124" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="K125" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="K126" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="K127" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="K128" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="K129" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="K130" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="K131" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="K132" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="K133" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="K134" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="K135" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="K136" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="K137" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="K138" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="K139" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="K140" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="K141" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="K142" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="K143" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="K144" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="K145" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="K146" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="K147" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="K148" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="K149" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="K150" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="K151" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="K152" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="K153" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="K154" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="K155" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="K156" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="K157" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="K158" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="K159" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="K160" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="K161" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="K162" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="K163" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="K164" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="K165" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="K166" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="K167" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="K168" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="K169" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="K170" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="K171" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="K172" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="K173" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="K174" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="K175" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="K176" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="K177" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="K178" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="K179" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="K180" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="K181" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="K182" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="K183" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="K184" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="K185" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="K186" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="K187" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="K188" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="K189" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="K190" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="K191" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="K192" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="K193" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="K194" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="K195" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="K196" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="K197" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="K198" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="K199" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="K200" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="K201" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="K202" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="K203" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="K204" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="K205" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="K206" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
